--- a/output/20230703 - DRG - vc - 18KDh19WT-120mV.xlsx
+++ b/output/20230703 - DRG - vc - 18KDh19WT-120mV.xlsx
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AB84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,261 +612,175 @@
       </c>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>27</v>
+      <c r="A2">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>9.4841</v>
+      </c>
+      <c r="C2">
+        <v>10.596</v>
+      </c>
+      <c r="D2">
+        <v>14.114</v>
+      </c>
+      <c r="E2">
+        <v>17.263</v>
+      </c>
+      <c r="F2">
+        <v>15.234</v>
+      </c>
+      <c r="G2">
+        <v>12.166</v>
+      </c>
+      <c r="H2">
+        <v>12.535</v>
+      </c>
+      <c r="I2">
+        <v>19.917</v>
+      </c>
+      <c r="J2">
+        <v>15.234</v>
+      </c>
+      <c r="K2">
+        <v>20.643</v>
+      </c>
+      <c r="L2">
+        <v>20.843</v>
+      </c>
+      <c r="M2">
+        <v>11.441</v>
+      </c>
+      <c r="N2">
+        <v>24.781</v>
+      </c>
+      <c r="O2">
+        <v>34.919</v>
+      </c>
+      <c r="P2">
+        <v>19.309</v>
+      </c>
+      <c r="Q2">
+        <v>10.787</v>
+      </c>
+      <c r="R2">
+        <v>16.345</v>
+      </c>
+      <c r="S2">
+        <v>27.436</v>
+      </c>
+      <c r="T2">
+        <v>18.416</v>
+      </c>
+      <c r="U2">
+        <v>25.306</v>
+      </c>
+      <c r="V2">
+        <v>14.855</v>
+      </c>
+      <c r="W2">
+        <v>8.260300000000001</v>
+      </c>
+      <c r="X2">
+        <v>11.716</v>
+      </c>
+      <c r="Y2">
+        <v>23.179</v>
+      </c>
+      <c r="Z2">
+        <v>15.609</v>
+      </c>
+      <c r="AA2">
+        <v>11.357</v>
+      </c>
+      <c r="AB2">
+        <v>14.794</v>
       </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="Q4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="R4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="S4" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="U4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V4" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="W4" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="X4" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AA4" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -874,2493 +788,6707 @@
         <v>-120</v>
       </c>
       <c r="B5">
-        <v>-3.3799E-10</v>
+        <v>1.1365E-11</v>
       </c>
       <c r="C5">
-        <v>-8.6194E-10</v>
+        <v>4.3594E-12</v>
       </c>
       <c r="D5">
-        <v>-8.434900000000001E-10</v>
+        <v>-9.6719E-12</v>
       </c>
       <c r="E5">
-        <v>-1.0031E-09</v>
+        <v>6.3307E-11</v>
       </c>
       <c r="F5">
-        <v>-7.1513E-10</v>
+        <v>1.851E-11</v>
       </c>
       <c r="G5">
-        <v>-1.5883E-09</v>
+        <v>2.0354E-11</v>
       </c>
       <c r="H5">
-        <v>-1.5822E-10</v>
+        <v>3.6161E-11</v>
       </c>
       <c r="I5">
-        <v>-1.7668E-09</v>
+        <v>7.1354E-11</v>
       </c>
       <c r="J5">
-        <v>-8.752E-10</v>
+        <v>-1.4896E-11</v>
       </c>
       <c r="K5">
-        <v>-2.8161E-09</v>
+        <v>2.9906E-11</v>
       </c>
       <c r="L5">
-        <v>-4.4124E-09</v>
+        <v>-1.5573E-11</v>
       </c>
       <c r="M5">
-        <v>-5.0563E-10</v>
+        <v>-6.5849E-11</v>
       </c>
       <c r="N5">
-        <v>-1.6673E-09</v>
+        <v>1.2083E-12</v>
       </c>
       <c r="O5">
-        <v>-2.6733E-09</v>
+        <v>3.1281E-11</v>
       </c>
       <c r="P5">
-        <v>-1.3562E-09</v>
+        <v>3.2293E-13</v>
       </c>
       <c r="Q5">
-        <v>-8.2056E-10</v>
+        <v>-3.1021E-11</v>
       </c>
       <c r="R5">
-        <v>-2.0449E-09</v>
+        <v>-4.1042E-11</v>
       </c>
       <c r="S5">
-        <v>-9.383800000000001E-09</v>
+        <v>-1.9346E-11</v>
       </c>
       <c r="T5">
-        <v>-3.3419E-09</v>
+        <v>-1.4583E-12</v>
       </c>
       <c r="U5">
-        <v>-1.9809E-09</v>
+        <v>3.2939E-11</v>
       </c>
       <c r="V5">
-        <v>-2.128E-10</v>
+        <v>3.324E-11</v>
       </c>
       <c r="W5">
-        <v>-3.3683E-10</v>
+        <v>1.0536E-11</v>
       </c>
       <c r="X5">
-        <v>-2.6049E-10</v>
+        <v>1.25E-11</v>
       </c>
       <c r="Y5">
-        <v>-1.8137E-09</v>
+        <v>4.988E-11</v>
       </c>
       <c r="Z5">
-        <v>-7.4309E-10</v>
+        <v>-2.6635E-11</v>
       </c>
       <c r="AA5">
-        <v>-4.0025E-10</v>
+        <v>8.9375E-12</v>
       </c>
       <c r="AB5">
-        <v>-2.4126E-09</v>
+        <v>-1.0085E-11</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6">
-        <v>-110</v>
+        <v>-115</v>
       </c>
       <c r="B6">
-        <v>-3.8726E-10</v>
+        <v>-6.2656E-12</v>
       </c>
       <c r="C6">
-        <v>-9.896899999999999E-10</v>
+        <v>5.8334E-13</v>
       </c>
       <c r="D6">
-        <v>-9.626400000000001E-10</v>
+        <v>1.5516E-11</v>
       </c>
       <c r="E6">
-        <v>-1.1387E-09</v>
+        <v>1.4505E-11</v>
       </c>
       <c r="F6">
-        <v>-7.7433E-10</v>
+        <v>-8.9792E-12</v>
       </c>
       <c r="G6">
-        <v>-1.7133E-09</v>
+        <v>2.6927E-12</v>
       </c>
       <c r="H6">
-        <v>-1.8298E-10</v>
+        <v>-2.5557E-11</v>
       </c>
       <c r="I6">
-        <v>-2.001E-09</v>
+        <v>1.5635E-11</v>
       </c>
       <c r="J6">
-        <v>-9.756E-10</v>
+        <v>-5.2083E-13</v>
       </c>
       <c r="K6">
-        <v>-2.8112E-09</v>
+        <v>-2.225E-11</v>
       </c>
       <c r="L6">
-        <v>-4.7144E-09</v>
+        <v>-8.8854E-12</v>
       </c>
       <c r="M6">
-        <v>-6.6252E-10</v>
+        <v>5.4234E-11</v>
       </c>
       <c r="N6">
-        <v>-1.6806E-09</v>
+        <v>3.6083E-11</v>
       </c>
       <c r="O6">
-        <v>-2.805E-09</v>
+        <v>2.9979E-11</v>
       </c>
       <c r="P6">
-        <v>-1.6436E-09</v>
+        <v>2.074E-11</v>
       </c>
       <c r="Q6">
-        <v>-9.352799999999999E-10</v>
+        <v>2.3229E-12</v>
       </c>
       <c r="R6">
-        <v>-2.3607E-09</v>
+        <v>-2.7583E-11</v>
       </c>
       <c r="S6">
-        <v>-1.0454E-08</v>
+        <v>5.0298E-11</v>
       </c>
       <c r="T6">
-        <v>-3.5718E-09</v>
+        <v>-1.4521E-11</v>
       </c>
       <c r="U6">
-        <v>-2.2672E-09</v>
+        <v>1.7849E-11</v>
       </c>
       <c r="V6">
-        <v>-2.6915E-10</v>
+        <v>-3.7938E-11</v>
       </c>
       <c r="W6">
-        <v>-3.8449E-10</v>
+        <v>-1.5625E-14</v>
       </c>
       <c r="X6">
-        <v>-2.8485E-10</v>
+        <v>3.4531E-11</v>
       </c>
       <c r="Y6">
-        <v>-1.8873E-09</v>
+        <v>3.7172E-11</v>
       </c>
       <c r="Z6">
-        <v>-8.2497E-10</v>
+        <v>-2.6833E-11</v>
       </c>
       <c r="AA6">
-        <v>-5.0888E-10</v>
+        <v>3.1302E-11</v>
       </c>
       <c r="AB6">
-        <v>-2.65E-09</v>
+        <v>-3.2243E-12</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7">
-        <v>-100</v>
+        <v>-110</v>
       </c>
       <c r="B7">
-        <v>-3.7373E-10</v>
+        <v>1.913E-11</v>
       </c>
       <c r="C7">
-        <v>-1.0498E-09</v>
+        <v>2.1536E-11</v>
       </c>
       <c r="D7">
-        <v>-9.5945E-10</v>
+        <v>-2.2266E-11</v>
       </c>
       <c r="E7">
-        <v>-1.1682E-09</v>
+        <v>-5.3542E-12</v>
       </c>
       <c r="F7">
-        <v>-8.7379E-10</v>
+        <v>-2.0917E-11</v>
       </c>
       <c r="G7">
-        <v>-1.77E-09</v>
+        <v>-2.6219E-11</v>
       </c>
       <c r="H7">
-        <v>-1.6967E-10</v>
+        <v>-2.1771E-11</v>
       </c>
       <c r="I7">
-        <v>-2.0386E-09</v>
+        <v>-2.1573E-11</v>
       </c>
       <c r="J7">
-        <v>-1.065E-09</v>
+        <v>-1.9438E-11</v>
       </c>
       <c r="K7">
-        <v>-2.9521E-09</v>
+        <v>1.6073E-11</v>
       </c>
       <c r="L7">
-        <v>-4.8359E-09</v>
+        <v>8.4375E-13</v>
       </c>
       <c r="M7">
-        <v>-6.9823E-10</v>
+        <v>1.063E-11</v>
       </c>
       <c r="N7">
-        <v>-1.8191E-09</v>
+        <v>1.6542E-11</v>
       </c>
       <c r="O7">
-        <v>-2.9978E-09</v>
+        <v>1.4073E-11</v>
       </c>
       <c r="P7">
-        <v>-1.627E-09</v>
+        <v>-1.5656E-11</v>
       </c>
       <c r="Q7">
-        <v>-1.0496E-09</v>
+        <v>-3.0417E-12</v>
       </c>
       <c r="R7">
-        <v>-2.4811E-09</v>
+        <v>-3.7969E-11</v>
       </c>
       <c r="S7">
-        <v>-1.1122E-08</v>
+        <v>6.139E-12</v>
       </c>
       <c r="T7">
-        <v>-3.9128E-09</v>
+        <v>-4.6646E-11</v>
       </c>
       <c r="U7">
-        <v>-2.5124E-09</v>
+        <v>-4.5888E-11</v>
       </c>
       <c r="V7">
-        <v>-3.0978E-10</v>
+        <v>1.1792E-11</v>
       </c>
       <c r="W7">
-        <v>-3.9407E-10</v>
+        <v>2.4052E-11</v>
       </c>
       <c r="X7">
-        <v>-3.6158E-10</v>
+        <v>3.5927E-11</v>
       </c>
       <c r="Y7">
-        <v>-2.0702E-09</v>
+        <v>7.6563E-13</v>
       </c>
       <c r="Z7">
-        <v>-8.1961E-10</v>
+        <v>7.9375E-12</v>
       </c>
       <c r="AA7">
-        <v>-5.0632E-10</v>
+        <v>-5.1146E-12</v>
       </c>
       <c r="AB7">
-        <v>-2.8747E-09</v>
+        <v>1.3129E-11</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8">
-        <v>-90</v>
+        <v>-105</v>
       </c>
       <c r="B8">
-        <v>-4.0086E-10</v>
+        <v>2.7969E-12</v>
       </c>
       <c r="C8">
-        <v>-1.1877E-09</v>
+        <v>-1.4104E-11</v>
       </c>
       <c r="D8">
-        <v>-1.0752E-09</v>
+        <v>-6.072399999999999E-11</v>
       </c>
       <c r="E8">
-        <v>-1.2734E-09</v>
+        <v>-1.5578E-11</v>
       </c>
       <c r="F8">
-        <v>-9.6962E-10</v>
+        <v>-1.6318E-11</v>
       </c>
       <c r="G8">
-        <v>-1.7726E-09</v>
+        <v>4.8042E-11</v>
       </c>
       <c r="H8">
-        <v>-1.5961E-10</v>
+        <v>-5.8334E-13</v>
       </c>
       <c r="I8">
-        <v>-2.1503E-09</v>
+        <v>-1.35E-11</v>
       </c>
       <c r="J8">
-        <v>-1.1507E-09</v>
+        <v>-4.2125E-11</v>
       </c>
       <c r="K8">
-        <v>-3.2186E-09</v>
+        <v>-3.2281E-11</v>
       </c>
       <c r="L8">
-        <v>-5.1283E-09</v>
+        <v>-3.701E-11</v>
       </c>
       <c r="M8">
-        <v>-7.3656E-10</v>
+        <v>-3.326E-11</v>
       </c>
       <c r="N8">
-        <v>-1.9128E-09</v>
+        <v>-6.200000000000001E-11</v>
       </c>
       <c r="O8">
-        <v>-3.2027E-09</v>
+        <v>-5.1188E-11</v>
       </c>
       <c r="P8">
-        <v>-1.7067E-09</v>
+        <v>-2.2224E-10</v>
       </c>
       <c r="Q8">
-        <v>-1.1176E-09</v>
+        <v>1.6531E-11</v>
       </c>
       <c r="R8">
-        <v>-2.706E-09</v>
+        <v>-7.1771E-12</v>
       </c>
       <c r="S8">
-        <v>-1.1701E-08</v>
+        <v>-1.4117E-10</v>
       </c>
       <c r="T8">
-        <v>-4.2369E-09</v>
+        <v>-8.9896E-12</v>
       </c>
       <c r="U8">
-        <v>-2.831E-09</v>
+        <v>-1.0895E-10</v>
       </c>
       <c r="V8">
-        <v>-3.1226E-10</v>
+        <v>-7.4073E-11</v>
       </c>
       <c r="W8">
-        <v>-3.6013E-10</v>
+        <v>-1.9391E-11</v>
       </c>
       <c r="X8">
-        <v>-3.7604E-10</v>
+        <v>2.2698E-11</v>
       </c>
       <c r="Y8">
-        <v>-2.1587E-09</v>
+        <v>1.224E-12</v>
       </c>
       <c r="Z8">
-        <v>-9.818500000000001E-10</v>
+        <v>7.2292E-12</v>
       </c>
       <c r="AA8">
-        <v>-5.057999999999999E-10</v>
+        <v>-2.0365E-11</v>
       </c>
       <c r="AB8">
-        <v>-3.1587E-09</v>
+        <v>-2.0816E-11</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9">
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="B9">
-        <v>-3.7877E-10</v>
+        <v>6.5521E-12</v>
       </c>
       <c r="C9">
-        <v>-1.2536E-09</v>
+        <v>1.3646E-12</v>
       </c>
       <c r="D9">
-        <v>-1.1185E-09</v>
+        <v>1.0286E-11</v>
       </c>
       <c r="E9">
-        <v>-1.4021E-09</v>
+        <v>-1.8005E-11</v>
       </c>
       <c r="F9">
-        <v>-1.0852E-09</v>
+        <v>-2.2351E-10</v>
       </c>
       <c r="G9">
-        <v>-1.7718E-09</v>
+        <v>-1.049E-10</v>
       </c>
       <c r="H9">
-        <v>-1.8168E-10</v>
+        <v>-4.9063E-12</v>
       </c>
       <c r="I9">
-        <v>-2.1116E-09</v>
+        <v>-2.85E-11</v>
       </c>
       <c r="J9">
-        <v>-1.2292E-09</v>
+        <v>-5.4063E-11</v>
       </c>
       <c r="K9">
-        <v>-3.4787E-09</v>
+        <v>-3.3688E-11</v>
       </c>
       <c r="L9">
-        <v>-5.3241E-09</v>
+        <v>-9.3687E-11</v>
       </c>
       <c r="M9">
-        <v>-6.2814E-10</v>
+        <v>-3.7677E-11</v>
       </c>
       <c r="N9">
-        <v>-1.8686E-09</v>
+        <v>-1.3405E-10</v>
       </c>
       <c r="O9">
-        <v>-3.4994E-09</v>
+        <v>-6.245800000000001E-11</v>
       </c>
       <c r="P9">
-        <v>-1.8606E-09</v>
+        <v>-4.161E-10</v>
       </c>
       <c r="Q9">
-        <v>-1.1131E-09</v>
+        <v>-5.8031E-11</v>
       </c>
       <c r="R9">
-        <v>-2.6983E-09</v>
+        <v>-1.5317E-10</v>
       </c>
       <c r="S9">
-        <v>-1.094E-08</v>
+        <v>-4.8918E-10</v>
       </c>
       <c r="T9">
-        <v>-4.5625E-09</v>
+        <v>-1.8942E-10</v>
       </c>
       <c r="U9">
-        <v>-3.1599E-09</v>
+        <v>-1.3495E-10</v>
       </c>
       <c r="V9">
-        <v>-2.8421E-10</v>
+        <v>1.326E-11</v>
       </c>
       <c r="W9">
-        <v>-2.8493E-10</v>
+        <v>-2.5813E-11</v>
       </c>
       <c r="X9">
-        <v>-3.6279E-10</v>
+        <v>-7.8854E-11</v>
       </c>
       <c r="Y9">
-        <v>-2.1567E-09</v>
+        <v>1.7146E-11</v>
       </c>
       <c r="Z9">
-        <v>-1.0784E-09</v>
+        <v>-8.135399999999999E-12</v>
       </c>
       <c r="AA9">
-        <v>-5.7714E-10</v>
+        <v>-3.3969E-11</v>
       </c>
       <c r="AB9">
-        <v>-3.4407E-09</v>
+        <v>-4.3153E-11</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10">
-        <v>-70</v>
+        <v>-95</v>
       </c>
       <c r="B10">
-        <v>-3.0825E-10</v>
+        <v>-4.2948E-11</v>
       </c>
       <c r="C10">
-        <v>-1.3546E-09</v>
+        <v>-4.0724E-11</v>
       </c>
       <c r="D10">
-        <v>-1.1309E-09</v>
+        <v>-2.4823E-11</v>
       </c>
       <c r="E10">
-        <v>-1.4849E-09</v>
+        <v>-6.0854E-11</v>
       </c>
       <c r="F10">
-        <v>-1.2134E-09</v>
+        <v>-4.3149E-10</v>
       </c>
       <c r="G10">
-        <v>-1.5937E-09</v>
+        <v>-7.2609E-11</v>
       </c>
       <c r="H10">
-        <v>-1.5224E-10</v>
+        <v>-2.3917E-11</v>
       </c>
       <c r="I10">
-        <v>-1.7974E-09</v>
+        <v>-1.6664E-10</v>
       </c>
       <c r="J10">
-        <v>-1.2006E-09</v>
+        <v>-3.3625E-11</v>
       </c>
       <c r="K10">
-        <v>-3.8594E-09</v>
+        <v>-9.902100000000001E-11</v>
       </c>
       <c r="L10">
-        <v>-5.4093E-09</v>
+        <v>-1.6948E-10</v>
       </c>
       <c r="M10">
-        <v>-5.058600000000001E-10</v>
+        <v>-9.321899999999999E-11</v>
       </c>
       <c r="N10">
-        <v>-1.7006E-09</v>
+        <v>-2.3532E-10</v>
       </c>
       <c r="O10">
-        <v>-3.6422E-09</v>
+        <v>-1.5505E-10</v>
       </c>
       <c r="P10">
-        <v>-1.8362E-09</v>
+        <v>-6.2977E-10</v>
       </c>
       <c r="Q10">
-        <v>-9.963E-10</v>
+        <v>-2.0736E-10</v>
       </c>
       <c r="R10">
-        <v>-2.3954E-09</v>
+        <v>-3.2267E-10</v>
       </c>
       <c r="S10">
-        <v>-1.1054E-08</v>
+        <v>-8.7181E-10</v>
       </c>
       <c r="T10">
-        <v>-4.5905E-09</v>
+        <v>-9.1302E-10</v>
       </c>
       <c r="U10">
-        <v>-3.248E-09</v>
+        <v>-4.0744E-10</v>
       </c>
       <c r="V10">
-        <v>-2.2935E-10</v>
+        <v>-9.357300000000001E-11</v>
       </c>
       <c r="W10">
-        <v>-2.2347E-10</v>
+        <v>-7.5943E-11</v>
       </c>
       <c r="X10">
-        <v>-3.5903E-10</v>
+        <v>-3.2561E-10</v>
       </c>
       <c r="Y10">
-        <v>-2.2967E-09</v>
+        <v>-2.0248E-10</v>
       </c>
       <c r="Z10">
-        <v>-1.3666E-09</v>
+        <v>-2.3958E-11</v>
       </c>
       <c r="AA10">
-        <v>-5.3331E-10</v>
+        <v>-3.3469E-11</v>
       </c>
       <c r="AB10">
-        <v>-3.5738E-09</v>
+        <v>-1.3617E-10</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11">
-        <v>-60</v>
+        <v>-90</v>
       </c>
       <c r="B11">
-        <v>-2.4787E-10</v>
+        <v>3.9422E-11</v>
       </c>
       <c r="C11">
-        <v>-1.2926E-09</v>
+        <v>-1.1828E-11</v>
       </c>
       <c r="D11">
-        <v>-1.1865E-09</v>
+        <v>-3.3047E-11</v>
       </c>
       <c r="E11">
-        <v>-1.454E-09</v>
+        <v>-2.6803E-10</v>
       </c>
       <c r="F11">
-        <v>-1.3001E-09</v>
+        <v>-5.448999999999999E-10</v>
       </c>
       <c r="G11">
-        <v>-1.0303E-09</v>
+        <v>-1.8708E-10</v>
       </c>
       <c r="H11">
-        <v>-2.3124E-10</v>
+        <v>4.0927E-11</v>
       </c>
       <c r="I11">
-        <v>-1.0545E-09</v>
+        <v>-2.4707E-10</v>
       </c>
       <c r="J11">
-        <v>-1.1792E-09</v>
+        <v>-1.1789E-10</v>
       </c>
       <c r="K11">
-        <v>-3.8166E-09</v>
+        <v>-2.3322E-10</v>
       </c>
       <c r="L11">
-        <v>-4.5986E-09</v>
+        <v>-3.3319E-10</v>
       </c>
       <c r="M11">
-        <v>-2.4825E-10</v>
+        <v>-2.8889E-10</v>
       </c>
       <c r="N11">
-        <v>-9.0691E-10</v>
+        <v>-5.0444E-10</v>
       </c>
       <c r="O11">
-        <v>-3.281E-09</v>
+        <v>-3.438E-10</v>
       </c>
       <c r="P11">
-        <v>-1.9271E-09</v>
+        <v>-8.874E-10</v>
       </c>
       <c r="Q11">
-        <v>-3.7675E-10</v>
+        <v>-4.2952E-10</v>
       </c>
       <c r="R11">
-        <v>-1.9289E-09</v>
+        <v>-6.4549E-10</v>
       </c>
       <c r="S11">
-        <v>-6.1644E-09</v>
+        <v>-2.056E-09</v>
       </c>
       <c r="T11">
-        <v>-3.7309E-09</v>
+        <v>-1.0157E-09</v>
       </c>
       <c r="U11">
-        <v>-2.647E-09</v>
+        <v>-9.0607E-10</v>
       </c>
       <c r="V11">
-        <v>-8.1512E-11</v>
+        <v>-2.2101E-10</v>
       </c>
       <c r="W11">
-        <v>-8.2956E-11</v>
+        <v>-1.2827E-10</v>
       </c>
       <c r="X11">
-        <v>-2.5438E-10</v>
+        <v>-5.306E-10</v>
       </c>
       <c r="Y11">
-        <v>-2.262E-09</v>
+        <v>-4.8113E-10</v>
       </c>
       <c r="Z11">
-        <v>-1.5522E-09</v>
+        <v>-5.524E-11</v>
       </c>
       <c r="AA11">
-        <v>-3.0969E-10</v>
+        <v>-7.6094E-11</v>
       </c>
       <c r="AB11">
-        <v>-2.7906E-09</v>
+        <v>-2.9403E-10</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12">
-        <v>-50</v>
+        <v>-85</v>
       </c>
       <c r="B12">
-        <v>-1.0808E-10</v>
+        <v>-3.3031E-11</v>
       </c>
       <c r="C12">
-        <v>-8.9266E-10</v>
+        <v>-1.0495E-10</v>
       </c>
       <c r="D12">
-        <v>-8.775399999999999E-10</v>
+        <v>-1.2047E-10</v>
       </c>
       <c r="E12">
-        <v>-9.1801E-10</v>
+        <v>-3.7684E-10</v>
       </c>
       <c r="F12">
-        <v>-1.0697E-09</v>
+        <v>-6.1547E-10</v>
       </c>
       <c r="G12">
-        <v>-2.9651E-10</v>
+        <v>-4.4216E-10</v>
       </c>
       <c r="H12">
-        <v>-2.2349E-10</v>
+        <v>2.8693E-11</v>
       </c>
       <c r="I12">
-        <v>-3.0319E-10</v>
+        <v>-5.9186E-10</v>
       </c>
       <c r="J12">
-        <v>-7.1076E-10</v>
+        <v>-1.8139E-10</v>
       </c>
       <c r="K12">
-        <v>-2.2234E-09</v>
+        <v>-6.7526E-10</v>
       </c>
       <c r="L12">
-        <v>-2.2559E-09</v>
+        <v>-7.0974E-10</v>
       </c>
       <c r="M12">
-        <v>-5.105E-11</v>
+        <v>-4.2045E-10</v>
       </c>
       <c r="N12">
-        <v>-4.7887E-11</v>
+        <v>-9.939799999999999E-10</v>
       </c>
       <c r="O12">
-        <v>-2.4323E-09</v>
+        <v>-5.1984E-10</v>
       </c>
       <c r="P12">
-        <v>-1.0803E-09</v>
+        <v>-1.015E-09</v>
       </c>
       <c r="Q12">
-        <v>1.4534E-10</v>
+        <v>-8.4681E-10</v>
       </c>
       <c r="R12">
-        <v>-7.1364E-10</v>
+        <v>-1.1909E-09</v>
       </c>
       <c r="S12">
-        <v>-1.4399E-09</v>
+        <v>-3.9641E-09</v>
       </c>
       <c r="T12">
-        <v>-2.1847E-09</v>
+        <v>-1.4823E-09</v>
       </c>
       <c r="U12">
-        <v>-5.3579E-10</v>
+        <v>-2.0464E-09</v>
       </c>
       <c r="V12">
-        <v>8.63E-11</v>
+        <v>-2.0104E-10</v>
       </c>
       <c r="W12">
-        <v>-2.2031E-11</v>
+        <v>-2.1571E-10</v>
       </c>
       <c r="X12">
-        <v>-2.6863E-11</v>
+        <v>-5.6328E-10</v>
       </c>
       <c r="Y12">
-        <v>-1.3868E-09</v>
+        <v>-6.2936E-10</v>
       </c>
       <c r="Z12">
-        <v>-1.5326E-09</v>
+        <v>-4.7167E-11</v>
       </c>
       <c r="AA12">
-        <v>1.5238E-11</v>
+        <v>-1.9891E-10</v>
       </c>
       <c r="AB12">
-        <v>-1.0058E-09</v>
+        <v>-5.4137E-10</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13">
-        <v>-40</v>
+        <v>-80</v>
       </c>
       <c r="B13">
-        <v>-4.1225E-11</v>
+        <v>-1.4432E-11</v>
       </c>
       <c r="C13">
-        <v>-1.2551E-10</v>
+        <v>-1.8739E-10</v>
       </c>
       <c r="D13">
-        <v>-4.3837E-10</v>
+        <v>-1.9761E-10</v>
       </c>
       <c r="E13">
-        <v>-6.2575E-11</v>
+        <v>-6.0132E-10</v>
       </c>
       <c r="F13">
-        <v>-3.0301E-10</v>
+        <v>-7.5245E-10</v>
       </c>
       <c r="G13">
-        <v>-6.325E-11</v>
+        <v>-6.9596E-10</v>
       </c>
       <c r="H13">
-        <v>-5.9406E-11</v>
+        <v>-1.6958E-11</v>
       </c>
       <c r="I13">
-        <v>3.0812E-11</v>
+        <v>-9.1494E-10</v>
       </c>
       <c r="J13">
-        <v>-1.1945E-10</v>
+        <v>-2.9391E-10</v>
       </c>
       <c r="K13">
-        <v>-5.002E-10</v>
+        <v>-9.4354E-10</v>
       </c>
       <c r="L13">
-        <v>-4.2419E-10</v>
+        <v>-1.4014E-09</v>
       </c>
       <c r="M13">
-        <v>-1.2575E-11</v>
+        <v>-6.0722E-10</v>
       </c>
       <c r="N13">
-        <v>6.402500000000001E-11</v>
+        <v>-1.6153E-09</v>
       </c>
       <c r="O13">
-        <v>-7.1052E-10</v>
+        <v>-1.0295E-09</v>
       </c>
       <c r="P13">
-        <v>-1.2634E-10</v>
+        <v>-1.3911E-09</v>
       </c>
       <c r="Q13">
-        <v>4.0863E-10</v>
+        <v>-1.4969E-09</v>
       </c>
       <c r="R13">
-        <v>-6.89E-11</v>
+        <v>-1.913E-09</v>
       </c>
       <c r="S13">
-        <v>-5.262E-11</v>
+        <v>-7.0057E-09</v>
       </c>
       <c r="T13">
-        <v>-8.765E-10</v>
+        <v>-1.9646E-09</v>
       </c>
       <c r="U13">
-        <v>1.0385E-10</v>
+        <v>-3.8511E-09</v>
       </c>
       <c r="V13">
-        <v>1.0183E-10</v>
+        <v>-2.5593E-10</v>
       </c>
       <c r="W13">
-        <v>1.3438E-11</v>
+        <v>-3.8265E-10</v>
       </c>
       <c r="X13">
-        <v>1.9884E-10</v>
+        <v>-7.4219E-10</v>
       </c>
       <c r="Y13">
-        <v>-3.3077E-10</v>
+        <v>-9.331100000000001E-10</v>
       </c>
       <c r="Z13">
-        <v>-1.0164E-09</v>
+        <v>-1.704E-10</v>
       </c>
       <c r="AA13">
-        <v>7.287499999999999E-11</v>
+        <v>-3.4193E-10</v>
       </c>
       <c r="AB13">
-        <v>-4.2529E-11</v>
+        <v>-9.6627E-10</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14">
-        <v>-30</v>
+        <v>-75</v>
       </c>
       <c r="B14">
-        <v>-6.9188E-12</v>
+        <v>-6.116699999999999E-11</v>
       </c>
       <c r="C14">
-        <v>-2.1444E-11</v>
+        <v>-2.7795E-10</v>
       </c>
       <c r="D14">
-        <v>-7.9981E-11</v>
+        <v>-2.5354E-10</v>
       </c>
       <c r="E14">
-        <v>1.2964E-10</v>
+        <v>-9.683500000000001E-10</v>
       </c>
       <c r="F14">
-        <v>-4.9681E-11</v>
+        <v>-8.1279E-10</v>
       </c>
       <c r="G14">
-        <v>-9.3306E-11</v>
+        <v>-1.0626E-09</v>
       </c>
       <c r="H14">
-        <v>3.71E-11</v>
+        <v>-4.0943E-11</v>
       </c>
       <c r="I14">
-        <v>2.8237E-11</v>
+        <v>-1.5036E-09</v>
       </c>
       <c r="J14">
-        <v>6.625E-12</v>
+        <v>-4.2676E-10</v>
       </c>
       <c r="K14">
-        <v>-1.4371E-10</v>
+        <v>-1.3229E-09</v>
       </c>
       <c r="L14">
-        <v>1.905E-11</v>
+        <v>-2.4636E-09</v>
       </c>
       <c r="M14">
-        <v>7.1381E-11</v>
+        <v>-8.6463E-10</v>
       </c>
       <c r="N14">
-        <v>1.7053E-10</v>
+        <v>-2.412E-09</v>
       </c>
       <c r="O14">
-        <v>-1.674E-10</v>
+        <v>-1.6502E-09</v>
       </c>
       <c r="P14">
-        <v>1.7816E-10</v>
+        <v>-1.774E-09</v>
       </c>
       <c r="Q14">
-        <v>6.0175E-10</v>
+        <v>-2.2387E-09</v>
       </c>
       <c r="R14">
-        <v>1.4635E-10</v>
+        <v>-2.8563E-09</v>
       </c>
       <c r="S14">
-        <v>1.456E-10</v>
+        <v>-1.0979E-08</v>
       </c>
       <c r="T14">
-        <v>-3.7391E-10</v>
+        <v>-2.913E-09</v>
       </c>
       <c r="U14">
-        <v>1.0902E-10</v>
+        <v>-6.2113E-09</v>
       </c>
       <c r="V14">
-        <v>1.8706E-10</v>
+        <v>-3.4451E-10</v>
       </c>
       <c r="W14">
-        <v>2.0225E-11</v>
+        <v>-5.5283E-10</v>
       </c>
       <c r="X14">
-        <v>1.6206E-10</v>
+        <v>-7.5525E-10</v>
       </c>
       <c r="Y14">
-        <v>1.5812E-10</v>
+        <v>-1.0463E-09</v>
       </c>
       <c r="Z14">
-        <v>-3.2589E-10</v>
+        <v>-2.6289E-10</v>
       </c>
       <c r="AA14">
-        <v>1.0789E-10</v>
+        <v>-5.5588E-10</v>
       </c>
       <c r="AB14">
-        <v>1.1917E-11</v>
+        <v>-1.7385E-09</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15">
-        <v>-20</v>
+        <v>-70</v>
       </c>
       <c r="B15">
-        <v>-2.8962E-11</v>
+        <v>-6.518200000000001E-11</v>
       </c>
       <c r="C15">
-        <v>-1.0994E-11</v>
+        <v>-5.339E-10</v>
       </c>
       <c r="D15">
-        <v>-1.0304E-10</v>
+        <v>-5.2776E-10</v>
       </c>
       <c r="E15">
-        <v>1.6013E-10</v>
+        <v>-1.2683E-09</v>
       </c>
       <c r="F15">
-        <v>-1.2075E-11</v>
+        <v>-1.0184E-09</v>
       </c>
       <c r="G15">
-        <v>-5.4769E-11</v>
+        <v>-1.5143E-09</v>
       </c>
       <c r="H15">
-        <v>2.539E-10</v>
+        <v>-9.2255E-11</v>
       </c>
       <c r="I15">
-        <v>7.1887E-11</v>
+        <v>-2.2929E-09</v>
       </c>
       <c r="J15">
-        <v>7.7487E-11</v>
+        <v>-6.2532E-10</v>
       </c>
       <c r="K15">
-        <v>-3.4687E-11</v>
+        <v>-1.8954E-09</v>
       </c>
       <c r="L15">
-        <v>-8.1313E-11</v>
+        <v>-3.6168E-09</v>
       </c>
       <c r="M15">
-        <v>8.719999999999999E-11</v>
+        <v>-1.1077E-09</v>
       </c>
       <c r="N15">
-        <v>1.708E-10</v>
+        <v>-3.2868E-09</v>
       </c>
       <c r="O15">
-        <v>-1.0378E-10</v>
+        <v>-2.5967E-09</v>
       </c>
       <c r="P15">
-        <v>1.5781E-10</v>
+        <v>-2.3062E-09</v>
       </c>
       <c r="Q15">
-        <v>4.8515E-10</v>
+        <v>-2.962E-09</v>
       </c>
       <c r="R15">
-        <v>1.3839E-10</v>
+        <v>-3.7229E-09</v>
       </c>
       <c r="S15">
-        <v>1.8352E-10</v>
+        <v>-1.4796E-08</v>
       </c>
       <c r="T15">
-        <v>-2.3357E-10</v>
+        <v>-4.1555E-09</v>
       </c>
       <c r="U15">
-        <v>2.1224E-10</v>
+        <v>-8.451099999999999E-09</v>
       </c>
       <c r="V15">
-        <v>1.5074E-10</v>
+        <v>-5.2772E-10</v>
       </c>
       <c r="W15">
-        <v>3.9513E-11</v>
+        <v>-7.3567E-10</v>
       </c>
       <c r="X15">
-        <v>1.089E-10</v>
+        <v>-8.3601E-10</v>
       </c>
       <c r="Y15">
-        <v>3.1224E-10</v>
+        <v>-1.1382E-09</v>
       </c>
       <c r="Z15">
-        <v>-1.4282E-10</v>
+        <v>-5.0925E-10</v>
       </c>
       <c r="AA15">
-        <v>1.461E-10</v>
+        <v>-7.4502E-10</v>
       </c>
       <c r="AB15">
-        <v>4.9153E-11</v>
+        <v>-2.7794E-09</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16">
-        <v>-10</v>
+        <v>-65</v>
       </c>
       <c r="B16">
-        <v>-2.8419E-11</v>
+        <v>-8.8839E-11</v>
       </c>
       <c r="C16">
-        <v>-4.5188E-11</v>
+        <v>-8.1092E-10</v>
       </c>
       <c r="D16">
-        <v>4.1369E-11</v>
+        <v>-7.2522E-10</v>
       </c>
       <c r="E16">
-        <v>1.2802E-10</v>
+        <v>-1.6755E-09</v>
       </c>
       <c r="F16">
-        <v>-2.4706E-11</v>
+        <v>-1.1797E-09</v>
       </c>
       <c r="G16">
-        <v>-1.7301E-10</v>
+        <v>-2.1259E-09</v>
       </c>
       <c r="H16">
-        <v>2.0529E-10</v>
+        <v>-1.7509E-10</v>
       </c>
       <c r="I16">
-        <v>7.1437E-11</v>
+        <v>-2.8158E-09</v>
       </c>
       <c r="J16">
-        <v>1.5237E-11</v>
+        <v>-9.326299999999999E-10</v>
       </c>
       <c r="K16">
-        <v>-5.4437E-11</v>
+        <v>-2.6707E-09</v>
       </c>
       <c r="L16">
-        <v>9.8225E-11</v>
+        <v>-5.0369E-09</v>
       </c>
       <c r="M16">
-        <v>8.2562E-11</v>
+        <v>-1.2417E-09</v>
       </c>
       <c r="N16">
-        <v>2.5416E-10</v>
+        <v>-4.0107E-09</v>
       </c>
       <c r="O16">
-        <v>-1.86E-11</v>
+        <v>-3.6029E-09</v>
       </c>
       <c r="P16">
-        <v>2.3621E-10</v>
+        <v>-2.8444E-09</v>
       </c>
       <c r="Q16">
-        <v>4.7757E-10</v>
+        <v>-3.4859E-09</v>
       </c>
       <c r="R16">
-        <v>1.8947E-10</v>
+        <v>-4.3406E-09</v>
       </c>
       <c r="S16">
-        <v>2.3249E-10</v>
+        <v>-1.7164E-08</v>
       </c>
       <c r="T16">
-        <v>-2.1316E-10</v>
+        <v>-5.5848E-09</v>
       </c>
       <c r="U16">
-        <v>2.0624E-10</v>
+        <v>-1.0387E-08</v>
       </c>
       <c r="V16">
-        <v>2.358E-10</v>
+        <v>-5.6646E-10</v>
       </c>
       <c r="W16">
-        <v>6.550600000000001E-11</v>
+        <v>-7.6594E-10</v>
       </c>
       <c r="X16">
-        <v>2.1561E-10</v>
+        <v>-8.6578E-10</v>
       </c>
       <c r="Y16">
-        <v>3.107E-10</v>
+        <v>-1.373E-09</v>
       </c>
       <c r="Z16">
-        <v>-1.146E-10</v>
+        <v>-8.0324E-10</v>
       </c>
       <c r="AA16">
-        <v>1.1796E-10</v>
+        <v>-1.0627E-09</v>
       </c>
       <c r="AB16">
-        <v>8.9516E-11</v>
+        <v>-4.0859E-09</v>
       </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="B17">
-        <v>-4.2031E-11</v>
+        <v>-1.4786E-10</v>
       </c>
       <c r="C17">
-        <v>-8.85E-12</v>
+        <v>-1.1476E-09</v>
       </c>
       <c r="D17">
-        <v>1.575E-11</v>
+        <v>-1.0298E-09</v>
       </c>
       <c r="E17">
-        <v>1.0077E-10</v>
+        <v>-1.9861E-09</v>
       </c>
       <c r="F17">
-        <v>1.3619E-11</v>
+        <v>-1.3465E-09</v>
       </c>
       <c r="G17">
-        <v>-1.5638E-10</v>
+        <v>-2.6234E-09</v>
       </c>
       <c r="H17">
-        <v>1.8917E-10</v>
+        <v>-2.298E-10</v>
       </c>
       <c r="I17">
-        <v>2.0225E-11</v>
+        <v>-3.024E-09</v>
       </c>
       <c r="J17">
-        <v>1.55E-12</v>
+        <v>-1.1934E-09</v>
       </c>
       <c r="K17">
-        <v>-3.5587E-11</v>
+        <v>-3.7904E-09</v>
       </c>
       <c r="L17">
-        <v>7.3E-12</v>
+        <v>-6.4224E-09</v>
       </c>
       <c r="M17">
-        <v>7.7331E-11</v>
+        <v>-1.388E-09</v>
       </c>
       <c r="N17">
-        <v>2.0521E-10</v>
+        <v>-4.1673E-09</v>
       </c>
       <c r="O17">
-        <v>-6.35E-12</v>
+        <v>-4.4995E-09</v>
       </c>
       <c r="P17">
-        <v>2.0765E-10</v>
+        <v>-3.4232E-09</v>
       </c>
       <c r="Q17">
-        <v>6.4736E-10</v>
+        <v>-3.3221E-09</v>
       </c>
       <c r="R17">
-        <v>2.3089E-10</v>
+        <v>-4.5938E-09</v>
       </c>
       <c r="S17">
-        <v>3.0312E-10</v>
+        <v>-1.7272E-08</v>
       </c>
       <c r="T17">
-        <v>-1.3721E-10</v>
+        <v>-6.4921E-09</v>
       </c>
       <c r="U17">
-        <v>3.0018E-10</v>
+        <v>-1.1183E-08</v>
       </c>
       <c r="V17">
-        <v>1.8332E-10</v>
+        <v>-6.1782E-10</v>
       </c>
       <c r="W17">
-        <v>4.8906E-11</v>
+        <v>-6.8244E-10</v>
       </c>
       <c r="X17">
-        <v>2.0356E-10</v>
+        <v>-8.462500000000001E-10</v>
       </c>
       <c r="Y17">
-        <v>3.7088E-10</v>
+        <v>-1.7286E-09</v>
       </c>
       <c r="Z17">
-        <v>-1.2099E-10</v>
+        <v>-1.2145E-09</v>
       </c>
       <c r="AA17">
-        <v>1.0825E-10</v>
+        <v>-1.2271E-09</v>
       </c>
       <c r="AB17">
-        <v>6.9551E-11</v>
+        <v>-5.4525E-09</v>
       </c>
     </row>
     <row r="18" spans="1:28">
       <c r="A18">
-        <v>10</v>
+        <v>-55</v>
       </c>
       <c r="B18">
-        <v>-2.3225E-11</v>
+        <v>-1.7846E-10</v>
       </c>
       <c r="C18">
-        <v>8.3375E-12</v>
+        <v>-1.5072E-09</v>
       </c>
       <c r="D18">
-        <v>-5.125E-11</v>
+        <v>-1.194E-09</v>
       </c>
       <c r="E18">
-        <v>2.0949E-10</v>
+        <v>-2.3968E-09</v>
       </c>
       <c r="F18">
-        <v>-1.9956E-11</v>
+        <v>-1.6046E-09</v>
       </c>
       <c r="G18">
-        <v>-1.7964E-10</v>
+        <v>-2.9011E-09</v>
       </c>
       <c r="H18">
-        <v>1.7681E-10</v>
+        <v>-3.0638E-10</v>
       </c>
       <c r="I18">
-        <v>1.0275E-11</v>
+        <v>-2.8551E-09</v>
       </c>
       <c r="J18">
-        <v>5.415E-11</v>
+        <v>-1.5369E-09</v>
       </c>
       <c r="K18">
-        <v>-6.8925E-11</v>
+        <v>-4.6878E-09</v>
       </c>
       <c r="L18">
-        <v>-5.9013E-11</v>
+        <v>-7.5478E-09</v>
       </c>
       <c r="M18">
-        <v>1.1872E-10</v>
+        <v>-1.2558E-09</v>
       </c>
       <c r="N18">
-        <v>2.4008E-10</v>
+        <v>-3.8235E-09</v>
       </c>
       <c r="O18">
-        <v>-1.2436E-10</v>
+        <v>-5.059E-09</v>
       </c>
       <c r="P18">
-        <v>2.2824E-10</v>
+        <v>-3.539E-09</v>
       </c>
       <c r="Q18">
-        <v>8.0578E-10</v>
+        <v>-2.7471E-09</v>
       </c>
       <c r="R18">
-        <v>2.1169E-10</v>
+        <v>-4.4763E-09</v>
       </c>
       <c r="S18">
-        <v>2.6691E-10</v>
+        <v>-1.5369E-08</v>
       </c>
       <c r="T18">
-        <v>-1.108E-10</v>
+        <v>-6.6604E-09</v>
       </c>
       <c r="U18">
-        <v>2.7341E-10</v>
+        <v>-1.0649E-08</v>
       </c>
       <c r="V18">
-        <v>1.6768E-10</v>
+        <v>-6.5252E-10</v>
       </c>
       <c r="W18">
-        <v>7.121900000000001E-11</v>
+        <v>-5.0985E-10</v>
       </c>
       <c r="X18">
-        <v>2.4891E-10</v>
+        <v>-7.1704E-10</v>
       </c>
       <c r="Y18">
-        <v>3.6975E-10</v>
+        <v>-2.1589E-09</v>
       </c>
       <c r="Z18">
-        <v>-1.481E-10</v>
+        <v>-1.6821E-09</v>
       </c>
       <c r="AA18">
-        <v>3.8437E-11</v>
+        <v>-1.2952E-09</v>
       </c>
       <c r="AB18">
-        <v>1.2233E-10</v>
+        <v>-6.2952E-09</v>
       </c>
     </row>
     <row r="19" spans="1:28">
       <c r="A19">
-        <v>20</v>
+        <v>-50</v>
       </c>
       <c r="B19">
-        <v>-4.4438E-12</v>
+        <v>-1.9346E-10</v>
       </c>
       <c r="C19">
-        <v>2.7369E-11</v>
+        <v>-1.7667E-09</v>
       </c>
       <c r="D19">
-        <v>-2.3763E-11</v>
+        <v>-1.4124E-09</v>
       </c>
       <c r="E19">
-        <v>2.0013E-10</v>
+        <v>-2.4803E-09</v>
       </c>
       <c r="F19">
-        <v>2.5706E-11</v>
+        <v>-1.7946E-09</v>
       </c>
       <c r="G19">
-        <v>-3.4674E-10</v>
+        <v>-2.9663E-09</v>
       </c>
       <c r="H19">
-        <v>1.6282E-10</v>
+        <v>-3.9559E-10</v>
       </c>
       <c r="I19">
-        <v>3.2537E-11</v>
+        <v>-2.289E-09</v>
       </c>
       <c r="J19">
-        <v>-6.9E-12</v>
+        <v>-1.6809E-09</v>
       </c>
       <c r="K19">
-        <v>-7.4662E-11</v>
+        <v>-5.2756E-09</v>
       </c>
       <c r="L19">
-        <v>-7.836200000000001E-11</v>
+        <v>-7.6748E-09</v>
       </c>
       <c r="M19">
-        <v>1.8139E-10</v>
+        <v>-9.5231E-10</v>
       </c>
       <c r="N19">
-        <v>3.0019E-10</v>
+        <v>-2.8483E-09</v>
       </c>
       <c r="O19">
-        <v>1.0175E-11</v>
+        <v>-5.0423E-09</v>
       </c>
       <c r="P19">
-        <v>3.4331E-10</v>
+        <v>-3.4301E-09</v>
       </c>
       <c r="Q19">
-        <v>7.4311E-10</v>
+        <v>-1.7938E-09</v>
       </c>
       <c r="R19">
-        <v>2.1014E-10</v>
+        <v>-3.8767E-09</v>
       </c>
       <c r="S19">
-        <v>3.5057E-10</v>
+        <v>-1.1995E-08</v>
       </c>
       <c r="T19">
-        <v>-2.0179E-10</v>
+        <v>-5.9911E-09</v>
       </c>
       <c r="U19">
-        <v>3.6772E-10</v>
+        <v>-8.395E-09</v>
       </c>
       <c r="V19">
-        <v>2.462E-10</v>
+        <v>-5.766E-10</v>
       </c>
       <c r="W19">
-        <v>7.183699999999999E-11</v>
+        <v>-3.7189E-10</v>
       </c>
       <c r="X19">
-        <v>2.4351E-10</v>
+        <v>-5.0149E-10</v>
       </c>
       <c r="Y19">
-        <v>4.2272E-10</v>
+        <v>-2.5475E-09</v>
       </c>
       <c r="Z19">
-        <v>-1.3816E-10</v>
+        <v>-2.1447E-09</v>
       </c>
       <c r="AA19">
-        <v>1.1892E-10</v>
+        <v>-1.1876E-09</v>
       </c>
       <c r="AB19">
-        <v>1.0335E-10</v>
+        <v>-6.3336E-09</v>
       </c>
     </row>
     <row r="20" spans="1:28">
       <c r="A20">
-        <v>30</v>
+        <v>-45</v>
       </c>
       <c r="B20">
-        <v>3.7E-12</v>
+        <v>-2.0103E-10</v>
       </c>
       <c r="C20">
-        <v>-1.97E-11</v>
+        <v>-1.777E-09</v>
       </c>
       <c r="D20">
-        <v>-2.5644E-11</v>
+        <v>-1.4579E-09</v>
       </c>
       <c r="E20">
-        <v>2.2462E-10</v>
+        <v>-2.243E-09</v>
       </c>
       <c r="F20">
-        <v>-2.4281E-11</v>
+        <v>-1.9172E-09</v>
       </c>
       <c r="G20">
-        <v>-3.4052E-10</v>
+        <v>-2.2992E-09</v>
       </c>
       <c r="H20">
-        <v>9.4513E-11</v>
+        <v>-4.9201E-10</v>
       </c>
       <c r="I20">
-        <v>-7.3863E-11</v>
+        <v>-1.4698E-09</v>
       </c>
       <c r="J20">
-        <v>-3.7212E-11</v>
+        <v>-1.5523E-09</v>
       </c>
       <c r="K20">
-        <v>-3.47E-11</v>
+        <v>-5.1854E-09</v>
       </c>
       <c r="L20">
-        <v>-1.0056E-10</v>
+        <v>-6.9728E-09</v>
       </c>
       <c r="M20">
-        <v>1.3657E-10</v>
+        <v>-5.5867E-10</v>
       </c>
       <c r="N20">
-        <v>2.2258E-10</v>
+        <v>-1.6367E-09</v>
       </c>
       <c r="O20">
-        <v>-2.571E-10</v>
+        <v>-4.7129E-09</v>
       </c>
       <c r="P20">
-        <v>1.8712E-10</v>
+        <v>-3.0239E-09</v>
       </c>
       <c r="Q20">
-        <v>9.696E-10</v>
+        <v>-8.4968E-10</v>
       </c>
       <c r="R20">
-        <v>2.117E-10</v>
+        <v>-2.8432E-09</v>
       </c>
       <c r="S20">
-        <v>2.5576E-10</v>
+        <v>-8.1417E-09</v>
       </c>
       <c r="T20">
-        <v>-2.7156E-10</v>
+        <v>-4.9073E-09</v>
       </c>
       <c r="U20">
-        <v>3.1974E-10</v>
+        <v>-5.3385E-09</v>
       </c>
       <c r="V20">
-        <v>2.7551E-10</v>
+        <v>-3.6048E-10</v>
       </c>
       <c r="W20">
-        <v>1.0878E-10</v>
+        <v>-2.4113E-10</v>
       </c>
       <c r="X20">
-        <v>3.1529E-10</v>
+        <v>-3.1708E-10</v>
       </c>
       <c r="Y20">
-        <v>4.5087E-10</v>
+        <v>-2.8543E-09</v>
       </c>
       <c r="Z20">
-        <v>-1.1314E-10</v>
+        <v>-2.325E-09</v>
       </c>
       <c r="AA20">
-        <v>3.7363E-11</v>
+        <v>-9.4952E-10</v>
       </c>
       <c r="AB20">
-        <v>9.3849E-11</v>
+        <v>-5.2262E-09</v>
       </c>
     </row>
     <row r="21" spans="1:28">
       <c r="A21">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="B21">
-        <v>-5.3795E-10</v>
+        <v>-1.5316E-10</v>
       </c>
       <c r="C21">
-        <v>-2.1543E-09</v>
+        <v>-1.5836E-09</v>
       </c>
       <c r="D21">
-        <v>-1.8965E-09</v>
+        <v>-1.2484E-09</v>
       </c>
       <c r="E21">
-        <v>-2.6451E-09</v>
+        <v>-1.6933E-09</v>
       </c>
       <c r="F21">
-        <v>-2.4575E-09</v>
+        <v>-1.6897E-09</v>
       </c>
       <c r="G21">
-        <v>-2.9357E-09</v>
+        <v>-1.5472E-09</v>
       </c>
       <c r="H21">
-        <v>-7.0549E-10</v>
+        <v>-4.1793E-10</v>
       </c>
       <c r="I21">
-        <v>-2.7862E-09</v>
+        <v>-7.544E-10</v>
       </c>
       <c r="J21">
-        <v>-2.0259E-09</v>
+        <v>-1.1999E-09</v>
       </c>
       <c r="K21">
-        <v>-5.9729E-09</v>
+        <v>-4.3841E-09</v>
       </c>
       <c r="L21">
-        <v>-8.6691E-09</v>
+        <v>-5.0518E-09</v>
       </c>
       <c r="M21">
-        <v>-1.0002E-09</v>
+        <v>-2.9108E-10</v>
       </c>
       <c r="N21">
-        <v>-3.1144E-09</v>
+        <v>-7.3275E-10</v>
       </c>
       <c r="O21">
-        <v>-5.5584E-09</v>
+        <v>-3.835E-09</v>
       </c>
       <c r="P21">
-        <v>-3.7934E-09</v>
+        <v>-2.1797E-09</v>
       </c>
       <c r="Q21">
-        <v>-1.981E-09</v>
+        <v>-2.228E-10</v>
       </c>
       <c r="R21">
-        <v>-4.1221E-09</v>
+        <v>-1.9021E-09</v>
       </c>
       <c r="S21">
-        <v>-1.2823E-08</v>
+        <v>-4.546E-09</v>
       </c>
       <c r="T21">
-        <v>-7.0704E-09</v>
+        <v>-3.718E-09</v>
       </c>
       <c r="U21">
-        <v>-6.7545E-09</v>
+        <v>-2.6152E-09</v>
       </c>
       <c r="V21">
-        <v>-5.9493E-10</v>
+        <v>-1.3582E-10</v>
       </c>
       <c r="W21">
-        <v>-7.0614E-10</v>
+        <v>-1.1263E-10</v>
       </c>
       <c r="X21">
-        <v>-7.376E-10</v>
+        <v>-1.6924E-10</v>
       </c>
       <c r="Y21">
-        <v>-4.7687E-09</v>
+        <v>-2.7841E-09</v>
       </c>
       <c r="Z21">
-        <v>-2.7773E-09</v>
+        <v>-2.3032E-09</v>
       </c>
       <c r="AA21">
-        <v>-1.2989E-09</v>
+        <v>-5.4547E-10</v>
       </c>
       <c r="AB21">
-        <v>-6.8923E-09</v>
+        <v>-3.3873E-09</v>
       </c>
     </row>
     <row r="22" spans="1:28">
       <c r="A22">
-        <v>-30</v>
+        <v>-35</v>
       </c>
       <c r="B22">
-        <v>-5.3281E-10</v>
+        <v>-1.1765E-10</v>
       </c>
       <c r="C22">
-        <v>-1.9538E-09</v>
+        <v>-1.1744E-09</v>
       </c>
       <c r="D22">
-        <v>-1.774E-09</v>
+        <v>-1.0527E-09</v>
       </c>
       <c r="E22">
-        <v>-2.2975E-09</v>
+        <v>-1.0452E-09</v>
       </c>
       <c r="F22">
-        <v>-2.2995E-09</v>
+        <v>-1.2097E-09</v>
       </c>
       <c r="G22">
-        <v>-2.5416E-09</v>
+        <v>-7.1211E-10</v>
       </c>
       <c r="H22">
-        <v>-6.9363E-10</v>
+        <v>-3.6008E-10</v>
       </c>
       <c r="I22">
-        <v>-2.41E-09</v>
+        <v>-3.3215E-10</v>
       </c>
       <c r="J22">
-        <v>-1.847E-09</v>
+        <v>-7.7033E-10</v>
       </c>
       <c r="K22">
-        <v>-5.4768E-09</v>
+        <v>-3.2182E-09</v>
       </c>
       <c r="L22">
-        <v>-7.9049E-09</v>
+        <v>-2.8137E-09</v>
       </c>
       <c r="M22">
-        <v>-8.9021E-10</v>
+        <v>-9.4906E-11</v>
       </c>
       <c r="N22">
-        <v>-2.5387E-09</v>
+        <v>-2.5258E-10</v>
       </c>
       <c r="O22">
-        <v>-4.9149E-09</v>
+        <v>-2.6119E-09</v>
       </c>
       <c r="P22">
-        <v>-3.3544E-09</v>
+        <v>-1.4008E-09</v>
       </c>
       <c r="Q22">
-        <v>-1.4373E-09</v>
+        <v>1.9783E-10</v>
       </c>
       <c r="R22">
-        <v>-3.6159E-09</v>
+        <v>-9.8758E-10</v>
       </c>
       <c r="S22">
-        <v>-1.0789E-08</v>
+        <v>-2.0519E-09</v>
       </c>
       <c r="T22">
-        <v>-6.3237E-09</v>
+        <v>-2.5561E-09</v>
       </c>
       <c r="U22">
-        <v>-4.9384E-09</v>
+        <v>-9.1365E-10</v>
       </c>
       <c r="V22">
-        <v>-5.2645E-10</v>
+        <v>-4.4885E-11</v>
       </c>
       <c r="W22">
-        <v>-6.2238E-10</v>
+        <v>-7.0661E-11</v>
       </c>
       <c r="X22">
-        <v>-5.7049E-10</v>
+        <v>-1.6521E-11</v>
       </c>
       <c r="Y22">
-        <v>-4.8447E-09</v>
+        <v>-1.9688E-09</v>
       </c>
       <c r="Z22">
-        <v>-2.6671E-09</v>
+        <v>-2.0506E-09</v>
       </c>
       <c r="AA22">
-        <v>-1.0725E-09</v>
+        <v>-2.3098E-10</v>
       </c>
       <c r="AB22">
-        <v>-5.9628E-09</v>
+        <v>-1.6319E-09</v>
       </c>
     </row>
     <row r="23" spans="1:28">
       <c r="A23">
-        <v>-25</v>
+        <v>-30</v>
       </c>
       <c r="B23">
-        <v>-5.6036E-10</v>
+        <v>-5.8307E-11</v>
       </c>
       <c r="C23">
-        <v>-1.7915E-09</v>
+        <v>-6.547E-10</v>
       </c>
       <c r="D23">
-        <v>-1.5752E-09</v>
+        <v>-6.7406E-10</v>
       </c>
       <c r="E23">
-        <v>-1.9962E-09</v>
+        <v>-4.2928E-10</v>
       </c>
       <c r="F23">
-        <v>-2.0978E-09</v>
+        <v>-6.8632E-10</v>
       </c>
       <c r="G23">
-        <v>-2.1784E-09</v>
+        <v>-3E-10</v>
       </c>
       <c r="H23">
-        <v>-6.6958E-10</v>
+        <v>-2.6607E-10</v>
       </c>
       <c r="I23">
-        <v>-2.1564E-09</v>
+        <v>-1.3276E-10</v>
       </c>
       <c r="J23">
-        <v>-1.6109E-09</v>
+        <v>-4.2669E-10</v>
       </c>
       <c r="K23">
-        <v>-4.7104E-09</v>
+        <v>-1.8805E-09</v>
       </c>
       <c r="L23">
-        <v>-6.9831E-09</v>
+        <v>-1.2887E-09</v>
       </c>
       <c r="M23">
-        <v>-7.6765E-10</v>
+        <v>-1.213E-11</v>
       </c>
       <c r="N23">
-        <v>-2.1333E-09</v>
+        <v>-1.0729E-10</v>
       </c>
       <c r="O23">
-        <v>-4.3959E-09</v>
+        <v>-1.53E-09</v>
       </c>
       <c r="P23">
-        <v>-2.8212E-09</v>
+        <v>-7.9453E-10</v>
       </c>
       <c r="Q23">
-        <v>-1.0498E-09</v>
+        <v>3.7604E-10</v>
       </c>
       <c r="R23">
-        <v>-3.1053E-09</v>
+        <v>-4.1009E-10</v>
       </c>
       <c r="S23">
-        <v>-8.846499999999999E-09</v>
+        <v>-7.8339E-10</v>
       </c>
       <c r="T23">
-        <v>-5.6862E-09</v>
+        <v>-1.644E-09</v>
       </c>
       <c r="U23">
-        <v>-3.6396E-09</v>
+        <v>-2.0929E-10</v>
       </c>
       <c r="V23">
-        <v>-4.4403E-10</v>
+        <v>7.2573E-11</v>
       </c>
       <c r="W23">
-        <v>-5.1501E-10</v>
+        <v>-6.0208E-12</v>
       </c>
       <c r="X23">
-        <v>-5.1805E-10</v>
+        <v>1.3672E-10</v>
       </c>
       <c r="Y23">
-        <v>-4.4328E-09</v>
+        <v>-1.3872E-09</v>
       </c>
       <c r="Z23">
-        <v>-2.4985E-09</v>
+        <v>-1.5951E-09</v>
       </c>
       <c r="AA23">
-        <v>-8.5917E-10</v>
+        <v>-7.082299999999999E-11</v>
       </c>
       <c r="AB23">
-        <v>-4.8591E-09</v>
+        <v>-6.0768E-10</v>
       </c>
     </row>
     <row r="24" spans="1:28">
       <c r="A24">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="B24">
-        <v>-5.661E-10</v>
+        <v>-1.1193E-10</v>
       </c>
       <c r="C24">
-        <v>-1.5573E-09</v>
+        <v>-2.7261E-10</v>
       </c>
       <c r="D24">
-        <v>-1.4297E-09</v>
+        <v>-3.6947E-10</v>
       </c>
       <c r="E24">
-        <v>-1.7014E-09</v>
+        <v>-1.1394E-10</v>
       </c>
       <c r="F24">
-        <v>-1.8128E-09</v>
+        <v>-3.1259E-10</v>
       </c>
       <c r="G24">
-        <v>-1.9386E-09</v>
+        <v>-1.1387E-10</v>
       </c>
       <c r="H24">
-        <v>-5.7208E-10</v>
+        <v>-1.1779E-10</v>
       </c>
       <c r="I24">
-        <v>-1.8974E-09</v>
+        <v>-5.7063E-11</v>
       </c>
       <c r="J24">
-        <v>-1.433E-09</v>
+        <v>-1.3199E-10</v>
       </c>
       <c r="K24">
-        <v>-4.12E-09</v>
+        <v>-8.4508E-10</v>
       </c>
       <c r="L24">
-        <v>-6.1871E-09</v>
+        <v>-5.2157E-10</v>
       </c>
       <c r="M24">
-        <v>-6.4342E-10</v>
+        <v>-1.1667E-11</v>
       </c>
       <c r="N24">
-        <v>-1.6982E-09</v>
+        <v>-1.133E-10</v>
       </c>
       <c r="O24">
-        <v>-3.7632E-09</v>
+        <v>-7.2733E-10</v>
       </c>
       <c r="P24">
-        <v>-2.4344E-09</v>
+        <v>-2.2003E-10</v>
       </c>
       <c r="Q24">
-        <v>-8.0652E-10</v>
+        <v>5.0557E-10</v>
       </c>
       <c r="R24">
-        <v>-2.6053E-09</v>
+        <v>-1.1826E-10</v>
       </c>
       <c r="S24">
-        <v>-7.2709E-09</v>
+        <v>-2.4076E-10</v>
       </c>
       <c r="T24">
-        <v>-5.0613E-09</v>
+        <v>-1.0924E-09</v>
       </c>
       <c r="U24">
-        <v>-2.7562E-09</v>
+        <v>7.8156E-11</v>
       </c>
       <c r="V24">
-        <v>-4.1179E-10</v>
+        <v>9.6427E-11</v>
       </c>
       <c r="W24">
-        <v>-4.522E-10</v>
+        <v>-3.6875E-12</v>
       </c>
       <c r="X24">
-        <v>-4.2417E-10</v>
+        <v>9.951E-11</v>
       </c>
       <c r="Y24">
-        <v>-4.0569E-09</v>
+        <v>-4.677E-10</v>
       </c>
       <c r="Z24">
-        <v>-2.2374E-09</v>
+        <v>-1.0845E-09</v>
       </c>
       <c r="AA24">
-        <v>-7.0627E-10</v>
+        <v>1.4271E-11</v>
       </c>
       <c r="AB24">
-        <v>-3.9913E-09</v>
+        <v>-1.8701E-10</v>
       </c>
     </row>
     <row r="25" spans="1:28">
       <c r="A25">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="B25">
-        <v>-5.5186E-10</v>
+        <v>-8.4651E-11</v>
       </c>
       <c r="C25">
-        <v>-1.4338E-09</v>
+        <v>-1.1814E-10</v>
       </c>
       <c r="D25">
-        <v>-1.2778E-09</v>
+        <v>-1.4554E-10</v>
       </c>
       <c r="E25">
-        <v>-1.4745E-09</v>
+        <v>6.3479E-11</v>
       </c>
       <c r="F25">
-        <v>-1.6451E-09</v>
+        <v>-1.7803E-10</v>
       </c>
       <c r="G25">
-        <v>-1.6968E-09</v>
+        <v>-1.7959E-10</v>
       </c>
       <c r="H25">
-        <v>-5.1853E-10</v>
+        <v>2.5219E-11</v>
       </c>
       <c r="I25">
-        <v>-1.7137E-09</v>
+        <v>-2.6115E-11</v>
       </c>
       <c r="J25">
-        <v>-1.2915E-09</v>
+        <v>-7.3427E-11</v>
       </c>
       <c r="K25">
-        <v>-3.5913E-09</v>
+        <v>-3.5273E-10</v>
       </c>
       <c r="L25">
-        <v>-5.4263E-09</v>
+        <v>-2.1975E-10</v>
       </c>
       <c r="M25">
-        <v>-5.7743E-10</v>
+        <v>4.4328E-11</v>
       </c>
       <c r="N25">
-        <v>-1.4716E-09</v>
+        <v>-9.5656E-11</v>
       </c>
       <c r="O25">
-        <v>-3.3101E-09</v>
+        <v>-2.6659E-10</v>
       </c>
       <c r="P25">
-        <v>-2.1223E-09</v>
+        <v>2.7354E-11</v>
       </c>
       <c r="Q25">
-        <v>-5.8344E-10</v>
+        <v>5.1244E-10</v>
       </c>
       <c r="R25">
-        <v>-2.1969E-09</v>
+        <v>1.7271E-11</v>
       </c>
       <c r="S25">
-        <v>-5.9961E-09</v>
+        <v>-8.5378E-11</v>
       </c>
       <c r="T25">
-        <v>-4.3871E-09</v>
+        <v>-7.8513E-10</v>
       </c>
       <c r="U25">
-        <v>-2.0636E-09</v>
+        <v>1.2296E-10</v>
       </c>
       <c r="V25">
-        <v>-3.0177E-10</v>
+        <v>1.2327E-10</v>
       </c>
       <c r="W25">
-        <v>-3.9371E-10</v>
+        <v>4.599E-12</v>
       </c>
       <c r="X25">
-        <v>-3.8943E-10</v>
+        <v>1.5808E-10</v>
       </c>
       <c r="Y25">
-        <v>-3.4934E-09</v>
+        <v>4.6458E-12</v>
       </c>
       <c r="Z25">
-        <v>-1.9374E-09</v>
+        <v>-6.5159E-10</v>
       </c>
       <c r="AA25">
-        <v>-5.6926E-10</v>
+        <v>2.6875E-11</v>
       </c>
       <c r="AB25">
-        <v>-3.2975E-09</v>
+        <v>-6.3737E-11</v>
       </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="B26">
-        <v>-5.3881E-10</v>
+        <v>-1.2235E-10</v>
       </c>
       <c r="C26">
-        <v>-1.2834E-09</v>
+        <v>-1.2012E-10</v>
       </c>
       <c r="D26">
-        <v>-1.1456E-09</v>
+        <v>-4.0604E-11</v>
       </c>
       <c r="E26">
-        <v>-1.3195E-09</v>
+        <v>7.5609E-11</v>
       </c>
       <c r="F26">
-        <v>-1.4714E-09</v>
+        <v>-1.2372E-10</v>
       </c>
       <c r="G26">
-        <v>-1.597E-09</v>
+        <v>-1.1653E-10</v>
       </c>
       <c r="H26">
-        <v>-4.5009E-10</v>
+        <v>9.049E-11</v>
       </c>
       <c r="I26">
-        <v>-1.5444E-09</v>
+        <v>-9.8333E-12</v>
       </c>
       <c r="J26">
-        <v>-1.1518E-09</v>
+        <v>-4.4521E-11</v>
       </c>
       <c r="K26">
-        <v>-3.0724E-09</v>
+        <v>-1.9447E-10</v>
       </c>
       <c r="L26">
-        <v>-4.7355E-09</v>
+        <v>-1.713E-10</v>
       </c>
       <c r="M26">
-        <v>-5.251E-10</v>
+        <v>-1.5624E-13</v>
       </c>
       <c r="N26">
-        <v>-1.2347E-09</v>
+        <v>-5.5156E-11</v>
       </c>
       <c r="O26">
-        <v>-2.9307E-09</v>
+        <v>-8.7656E-11</v>
       </c>
       <c r="P26">
-        <v>-1.9007E-09</v>
+        <v>8.7781E-11</v>
       </c>
       <c r="Q26">
-        <v>-4.0703E-10</v>
+        <v>6.5519E-10</v>
       </c>
       <c r="R26">
-        <v>-1.8299E-09</v>
+        <v>1.1887E-10</v>
       </c>
       <c r="S26">
-        <v>-5.0065E-09</v>
+        <v>9.9436E-11</v>
       </c>
       <c r="T26">
-        <v>-3.9446E-09</v>
+        <v>-4.7219E-10</v>
       </c>
       <c r="U26">
-        <v>-1.5881E-09</v>
+        <v>1.3888E-10</v>
       </c>
       <c r="V26">
-        <v>-3.0015E-10</v>
+        <v>1.7212E-10</v>
       </c>
       <c r="W26">
-        <v>-3.3672E-10</v>
+        <v>2.6563E-11</v>
       </c>
       <c r="X26">
-        <v>-3.1774E-10</v>
+        <v>1.5132E-10</v>
       </c>
       <c r="Y26">
-        <v>-2.9689E-09</v>
+        <v>1.3274E-10</v>
       </c>
       <c r="Z26">
-        <v>-1.7056E-09</v>
+        <v>-3.6094E-10</v>
       </c>
       <c r="AA26">
-        <v>-5.5983E-10</v>
+        <v>7.857300000000001E-11</v>
       </c>
       <c r="AB26">
-        <v>-2.7202E-09</v>
+        <v>7.4287E-12</v>
       </c>
     </row>
     <row r="27" spans="1:28">
       <c r="A27">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="B27">
-        <v>-5.0464E-10</v>
+        <v>-1.0821E-10</v>
       </c>
       <c r="C27">
-        <v>-1.1666E-09</v>
+        <v>-9.3667E-11</v>
       </c>
       <c r="D27">
-        <v>-1.0091E-09</v>
+        <v>-6.8776E-11</v>
       </c>
       <c r="E27">
-        <v>-1.1444E-09</v>
+        <v>7.643800000000001E-11</v>
       </c>
       <c r="F27">
-        <v>-1.3106E-09</v>
+        <v>-4.7198E-11</v>
       </c>
       <c r="G27">
-        <v>-1.4621E-09</v>
+        <v>-1.8722E-10</v>
       </c>
       <c r="H27">
-        <v>-3.6622E-10</v>
+        <v>1.7236E-10</v>
       </c>
       <c r="I27">
-        <v>-1.3576E-09</v>
+        <v>-4.4687E-11</v>
       </c>
       <c r="J27">
-        <v>-1.0832E-09</v>
+        <v>-1.4698E-11</v>
       </c>
       <c r="K27">
-        <v>-2.6775E-09</v>
+        <v>-1.7993E-10</v>
       </c>
       <c r="L27">
-        <v>-4.1629E-09</v>
+        <v>-1.6728E-10</v>
       </c>
       <c r="M27">
-        <v>-4.601E-10</v>
+        <v>3.2984E-11</v>
       </c>
       <c r="N27">
-        <v>-9.930600000000001E-10</v>
+        <v>1.001E-11</v>
       </c>
       <c r="O27">
-        <v>-2.5686E-09</v>
+        <v>-9.5542E-11</v>
       </c>
       <c r="P27">
-        <v>-1.6743E-09</v>
+        <v>5.1625E-11</v>
       </c>
       <c r="Q27">
-        <v>-2.2366E-10</v>
+        <v>6.2722E-10</v>
       </c>
       <c r="R27">
-        <v>-1.4877E-09</v>
+        <v>1.4719E-10</v>
       </c>
       <c r="S27">
-        <v>-4.1498E-09</v>
+        <v>1.4512E-10</v>
       </c>
       <c r="T27">
-        <v>-3.4431E-09</v>
+        <v>-5.0047E-10</v>
       </c>
       <c r="U27">
-        <v>-1.1184E-09</v>
+        <v>2.0687E-10</v>
       </c>
       <c r="V27">
-        <v>-2.3789E-10</v>
+        <v>2.3033E-10</v>
       </c>
       <c r="W27">
-        <v>-2.779E-10</v>
+        <v>1.7286E-11</v>
       </c>
       <c r="X27">
-        <v>-2.181E-10</v>
+        <v>1.948E-10</v>
       </c>
       <c r="Y27">
-        <v>-2.4513E-09</v>
+        <v>2.0182E-10</v>
       </c>
       <c r="Z27">
-        <v>-1.4848E-09</v>
+        <v>-2.3394E-10</v>
       </c>
       <c r="AA27">
-        <v>-4.0938E-10</v>
+        <v>4.5458E-11</v>
       </c>
       <c r="AB27">
-        <v>-2.2635E-09</v>
+        <v>6.513E-11</v>
       </c>
     </row>
     <row r="28" spans="1:28">
       <c r="A28">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B28">
-        <v>-4.8218E-10</v>
+        <v>-1.0144E-10</v>
       </c>
       <c r="C28">
-        <v>-1.0315E-09</v>
+        <v>-1.1365E-10</v>
       </c>
       <c r="D28">
-        <v>-9.583200000000001E-10</v>
+        <v>-3.6318E-11</v>
       </c>
       <c r="E28">
-        <v>-9.5455E-10</v>
+        <v>1.3263E-10</v>
       </c>
       <c r="F28">
-        <v>-1.1425E-09</v>
+        <v>-5.5484E-11</v>
       </c>
       <c r="G28">
-        <v>-1.2916E-09</v>
+        <v>-1.1076E-10</v>
       </c>
       <c r="H28">
-        <v>-3.2135E-10</v>
+        <v>1.316E-10</v>
       </c>
       <c r="I28">
-        <v>-1.1954E-09</v>
+        <v>-4.7531E-11</v>
       </c>
       <c r="J28">
-        <v>-9.904599999999999E-10</v>
+        <v>-7.8865E-11</v>
       </c>
       <c r="K28">
-        <v>-2.3663E-09</v>
+        <v>-2.1004E-10</v>
       </c>
       <c r="L28">
-        <v>-3.5794E-09</v>
+        <v>-8.1375E-11</v>
       </c>
       <c r="M28">
-        <v>-3.7478E-10</v>
+        <v>8.2818E-11</v>
       </c>
       <c r="N28">
-        <v>-8.0361E-10</v>
+        <v>7.7479E-11</v>
       </c>
       <c r="O28">
-        <v>-2.2277E-09</v>
+        <v>-1.3341E-10</v>
       </c>
       <c r="P28">
-        <v>-1.4418E-09</v>
+        <v>1.4984E-10</v>
       </c>
       <c r="Q28">
-        <v>-3.8771E-11</v>
+        <v>8.0089E-10</v>
       </c>
       <c r="R28">
-        <v>-1.2598E-09</v>
+        <v>1.7969E-10</v>
       </c>
       <c r="S28">
-        <v>-3.3672E-09</v>
+        <v>2.3516E-10</v>
       </c>
       <c r="T28">
-        <v>-2.9639E-09</v>
+        <v>-3.7753E-10</v>
       </c>
       <c r="U28">
-        <v>-8.7517E-10</v>
+        <v>2.9121E-10</v>
       </c>
       <c r="V28">
-        <v>-1.8801E-10</v>
+        <v>2.0472E-10</v>
       </c>
       <c r="W28">
-        <v>-2.2753E-10</v>
+        <v>7.3047E-11</v>
       </c>
       <c r="X28">
-        <v>-1.6698E-10</v>
+        <v>2.4994E-10</v>
       </c>
       <c r="Y28">
-        <v>-1.9918E-09</v>
+        <v>3.7829E-10</v>
       </c>
       <c r="Z28">
-        <v>-1.3655E-09</v>
+        <v>-1.6931E-10</v>
       </c>
       <c r="AA28">
-        <v>-3.5329E-10</v>
+        <v>1.6158E-10</v>
       </c>
       <c r="AB28">
-        <v>-1.8491E-09</v>
+        <v>9.4742E-11</v>
       </c>
     </row>
     <row r="29" spans="1:28">
       <c r="A29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <v>-4.1708E-10</v>
+        <v>-9.2115E-11</v>
       </c>
       <c r="C29">
-        <v>-9.1677E-10</v>
+        <v>-1.351E-10</v>
       </c>
       <c r="D29">
-        <v>-8.3992E-10</v>
+        <v>-7.9437E-11</v>
       </c>
       <c r="E29">
-        <v>-8.3607E-10</v>
+        <v>1.3367E-10</v>
       </c>
       <c r="F29">
-        <v>-9.799700000000001E-10</v>
+        <v>-1.5583E-11</v>
       </c>
       <c r="G29">
-        <v>-1.1545E-09</v>
+        <v>-1.3504E-10</v>
       </c>
       <c r="H29">
-        <v>-2.8451E-10</v>
+        <v>2.2949E-10</v>
       </c>
       <c r="I29">
-        <v>-1.041E-09</v>
+        <v>6.7823E-11</v>
       </c>
       <c r="J29">
-        <v>-9.0462E-10</v>
+        <v>-8.708300000000001E-12</v>
       </c>
       <c r="K29">
-        <v>-2.0524E-09</v>
+        <v>-1.5852E-10</v>
       </c>
       <c r="L29">
-        <v>-3.1427E-09</v>
+        <v>-1.3098E-10</v>
       </c>
       <c r="M29">
-        <v>-2.9822E-10</v>
+        <v>9.4302E-11</v>
       </c>
       <c r="N29">
-        <v>-7.173E-10</v>
+        <v>1.0093E-10</v>
       </c>
       <c r="O29">
-        <v>-1.9729E-09</v>
+        <v>-5.4021E-11</v>
       </c>
       <c r="P29">
-        <v>-1.301E-09</v>
+        <v>2.0492E-10</v>
       </c>
       <c r="Q29">
-        <v>-2.1698E-11</v>
+        <v>8.834E-10</v>
       </c>
       <c r="R29">
-        <v>-1.0053E-09</v>
+        <v>2.3516E-10</v>
       </c>
       <c r="S29">
-        <v>-2.6636E-09</v>
+        <v>2.8866E-10</v>
       </c>
       <c r="T29">
-        <v>-2.6392E-09</v>
+        <v>-2.7402E-10</v>
       </c>
       <c r="U29">
-        <v>-6.212199999999999E-10</v>
+        <v>3.2508E-10</v>
       </c>
       <c r="V29">
-        <v>-1.9437E-10</v>
+        <v>2.5716E-10</v>
       </c>
       <c r="W29">
-        <v>-1.9529E-10</v>
+        <v>6.5005E-11</v>
       </c>
       <c r="X29">
-        <v>-1.5253E-10</v>
+        <v>2.779E-10</v>
       </c>
       <c r="Y29">
-        <v>-1.5502E-09</v>
+        <v>3.7249E-10</v>
       </c>
       <c r="Z29">
-        <v>-1.179E-09</v>
+        <v>-1.4352E-10</v>
       </c>
       <c r="AA29">
-        <v>-3.1224E-10</v>
+        <v>1.1248E-10</v>
       </c>
       <c r="AB29">
-        <v>-1.5051E-09</v>
+        <v>1.1053E-10</v>
       </c>
     </row>
     <row r="30" spans="1:28">
       <c r="A30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>-3.9297E-10</v>
+        <v>-3.1448E-11</v>
       </c>
       <c r="C30">
-        <v>-8.3706E-10</v>
+        <v>8.8365E-11</v>
       </c>
       <c r="D30">
-        <v>-7.3926E-10</v>
+        <v>-4.1354E-12</v>
       </c>
       <c r="E30">
-        <v>-6.9591E-10</v>
+        <v>1.3106E-10</v>
       </c>
       <c r="F30">
-        <v>-9.0233E-10</v>
+        <v>-2.812E-11</v>
       </c>
       <c r="G30">
-        <v>-1.0136E-09</v>
+        <v>-3.6359E-11</v>
       </c>
       <c r="H30">
-        <v>-1.9243E-10</v>
+        <v>2.8362E-10</v>
       </c>
       <c r="I30">
-        <v>-9.3671E-10</v>
+        <v>1.0643E-10</v>
       </c>
       <c r="J30">
-        <v>-7.9049E-10</v>
+        <v>-2.75E-11</v>
       </c>
       <c r="K30">
-        <v>-1.779E-09</v>
+        <v>-1.4676E-10</v>
       </c>
       <c r="L30">
-        <v>-2.6323E-09</v>
+        <v>-1.6802E-11</v>
       </c>
       <c r="M30">
-        <v>-2.3469E-10</v>
+        <v>1.2619E-10</v>
       </c>
       <c r="N30">
-        <v>-5.3363E-10</v>
+        <v>1.8247E-10</v>
       </c>
       <c r="O30">
-        <v>-1.7582E-09</v>
+        <v>-1.425E-11</v>
       </c>
       <c r="P30">
-        <v>-1.1078E-09</v>
+        <v>1.7067E-10</v>
       </c>
       <c r="Q30">
-        <v>1.1455E-13</v>
+        <v>9.548599999999999E-10</v>
       </c>
       <c r="R30">
-        <v>-8.5391E-10</v>
+        <v>2.7024E-10</v>
       </c>
       <c r="S30">
-        <v>-2.1245E-09</v>
+        <v>3.89E-10</v>
       </c>
       <c r="T30">
-        <v>-2.2825E-09</v>
+        <v>-2.6648E-10</v>
       </c>
       <c r="U30">
-        <v>-3.4964E-10</v>
+        <v>3.8645E-10</v>
       </c>
       <c r="V30">
-        <v>-1.4236E-10</v>
+        <v>3.0056E-10</v>
       </c>
       <c r="W30">
-        <v>-1.6615E-10</v>
+        <v>1.1378E-10</v>
       </c>
       <c r="X30">
-        <v>-1.1614E-10</v>
+        <v>3.1022E-10</v>
       </c>
       <c r="Y30">
-        <v>-1.1917E-09</v>
+        <v>4.7992E-10</v>
       </c>
       <c r="Z30">
-        <v>-1.0495E-09</v>
+        <v>-1.8039E-10</v>
       </c>
       <c r="AA30">
-        <v>-2.884E-10</v>
+        <v>1.237E-10</v>
       </c>
       <c r="AB30">
-        <v>-1.2215E-09</v>
+        <v>1.0877E-10</v>
       </c>
     </row>
     <row r="31" spans="1:28">
       <c r="A31">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>-3.2501E-10</v>
+        <v>2.5927E-11</v>
       </c>
       <c r="C31">
-        <v>-7.1309E-10</v>
+        <v>-9.141100000000001E-11</v>
       </c>
       <c r="D31">
-        <v>-6.8028E-10</v>
+        <v>-1.8823E-11</v>
       </c>
       <c r="E31">
-        <v>-5.7929E-10</v>
+        <v>2.3776E-10</v>
       </c>
       <c r="F31">
-        <v>-7.7876E-10</v>
+        <v>-3.7917E-12</v>
       </c>
       <c r="G31">
-        <v>-8.7988E-10</v>
+        <v>-7.1542E-11</v>
       </c>
       <c r="H31">
-        <v>-1.2983E-10</v>
+        <v>4.1479E-10</v>
       </c>
       <c r="I31">
-        <v>-7.7222E-10</v>
+        <v>1.4504E-10</v>
       </c>
       <c r="J31">
-        <v>-7.1874E-10</v>
+        <v>1.201E-11</v>
       </c>
       <c r="K31">
-        <v>-1.5024E-09</v>
+        <v>-1.8417E-10</v>
       </c>
       <c r="L31">
-        <v>-2.2051E-09</v>
+        <v>1.3417E-11</v>
       </c>
       <c r="M31">
-        <v>-1.8606E-10</v>
+        <v>1.7639E-10</v>
       </c>
       <c r="N31">
-        <v>-3.5353E-10</v>
+        <v>2.1017E-10</v>
       </c>
       <c r="O31">
-        <v>-1.5379E-09</v>
+        <v>-5.675E-11</v>
       </c>
       <c r="P31">
-        <v>-9.9278E-10</v>
+        <v>2.0395E-10</v>
       </c>
       <c r="Q31">
-        <v>-1.1292E-11</v>
+        <v>9.8097E-10</v>
       </c>
       <c r="R31">
-        <v>-6.4789E-10</v>
+        <v>2.4714E-10</v>
       </c>
       <c r="S31">
-        <v>-1.5657E-09</v>
+        <v>3.791E-10</v>
       </c>
       <c r="T31">
-        <v>-1.9379E-09</v>
+        <v>-2.3455E-10</v>
       </c>
       <c r="U31">
-        <v>-2.1123E-10</v>
+        <v>4.328E-10</v>
       </c>
       <c r="V31">
-        <v>-1.3792E-10</v>
+        <v>3.0395E-10</v>
       </c>
       <c r="W31">
-        <v>-1.4279E-10</v>
+        <v>1.4923E-10</v>
       </c>
       <c r="X31">
-        <v>-6.030200000000001E-11</v>
+        <v>3.4534E-10</v>
       </c>
       <c r="Y31">
-        <v>-8.5205E-10</v>
+        <v>5.5859E-10</v>
       </c>
       <c r="Z31">
-        <v>-9.261E-10</v>
+        <v>-1.2377E-10</v>
       </c>
       <c r="AA31">
-        <v>-2.9672E-10</v>
+        <v>1.9023E-10</v>
       </c>
       <c r="AB31">
-        <v>-9.324E-10</v>
+        <v>1.307E-10</v>
       </c>
     </row>
     <row r="32" spans="1:28">
       <c r="A32">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B32">
-        <v>-3.045E-10</v>
+        <v>2.8698E-11</v>
       </c>
       <c r="C32">
-        <v>-6.0798E-10</v>
+        <v>-6.0365E-11</v>
       </c>
       <c r="D32">
-        <v>-5.3191E-10</v>
+        <v>7.333300000000001E-12</v>
       </c>
       <c r="E32">
-        <v>-4.4256E-10</v>
+        <v>2.4713E-10</v>
       </c>
       <c r="F32">
-        <v>-6.6766E-10</v>
+        <v>1.9057E-11</v>
       </c>
       <c r="G32">
-        <v>-7.3548E-10</v>
+        <v>7.3839E-11</v>
       </c>
       <c r="H32">
-        <v>-1.2032E-10</v>
+        <v>4.2798E-10</v>
       </c>
       <c r="I32">
-        <v>-5.9385E-10</v>
+        <v>2.0951E-10</v>
       </c>
       <c r="J32">
-        <v>-6.4505E-10</v>
+        <v>-1.649E-11</v>
       </c>
       <c r="K32">
-        <v>-1.1969E-09</v>
+        <v>-1.0419E-10</v>
       </c>
       <c r="L32">
-        <v>-1.8608E-09</v>
+        <v>1.2365E-10</v>
       </c>
       <c r="M32">
-        <v>-1.0442E-10</v>
+        <v>1.5303E-10</v>
       </c>
       <c r="N32">
-        <v>-2.4722E-10</v>
+        <v>2.8278E-10</v>
       </c>
       <c r="O32">
-        <v>-1.3166E-09</v>
+        <v>1.349E-11</v>
       </c>
       <c r="P32">
-        <v>-8.6816E-10</v>
+        <v>3.4751E-10</v>
       </c>
       <c r="Q32">
-        <v>1.9479E-11</v>
+        <v>1.1106E-09</v>
       </c>
       <c r="R32">
-        <v>-4.0615E-10</v>
+        <v>3.5722E-10</v>
       </c>
       <c r="S32">
-        <v>-1.0638E-09</v>
+        <v>4.9888E-10</v>
       </c>
       <c r="T32">
-        <v>-1.6603E-09</v>
+        <v>-1.7781E-10</v>
       </c>
       <c r="U32">
-        <v>-7.6041E-11</v>
+        <v>4.7242E-10</v>
       </c>
       <c r="V32">
-        <v>-1.501E-10</v>
+        <v>4.1602E-10</v>
       </c>
       <c r="W32">
-        <v>-1.0428E-10</v>
+        <v>1.6088E-10</v>
       </c>
       <c r="X32">
-        <v>-3.576E-11</v>
+        <v>4.1761E-10</v>
       </c>
       <c r="Y32">
-        <v>-5.1494E-10</v>
+        <v>6.8523E-10</v>
       </c>
       <c r="Z32">
-        <v>-8.2093E-10</v>
+        <v>-1.6377E-10</v>
       </c>
       <c r="AA32">
-        <v>-2.1359E-10</v>
+        <v>2.6861E-10</v>
       </c>
       <c r="AB32">
-        <v>-7.0885E-10</v>
+        <v>1.2551E-10</v>
       </c>
     </row>
     <row r="33" spans="1:28">
       <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>8.569799999999999E-11</v>
+      </c>
+      <c r="C33">
+        <v>-5.4536E-11</v>
+      </c>
+      <c r="D33">
+        <v>4.424E-11</v>
+      </c>
+      <c r="E33">
+        <v>2.904E-10</v>
+      </c>
+      <c r="F33">
+        <v>3.9667E-11</v>
+      </c>
+      <c r="G33">
+        <v>1.4681E-10</v>
+      </c>
+      <c r="H33">
+        <v>4.7148E-10</v>
+      </c>
+      <c r="I33">
+        <v>2.7315E-10</v>
+      </c>
+      <c r="J33">
+        <v>1.2073E-11</v>
+      </c>
+      <c r="K33">
+        <v>-9.4802E-11</v>
+      </c>
+      <c r="L33">
+        <v>1.9627E-10</v>
+      </c>
+      <c r="M33">
+        <v>2.4916E-10</v>
+      </c>
+      <c r="N33">
+        <v>3.5516E-10</v>
+      </c>
+      <c r="O33">
+        <v>7.7542E-11</v>
+      </c>
+      <c r="P33">
+        <v>4.6122E-10</v>
+      </c>
+      <c r="Q33">
+        <v>1.2507E-09</v>
+      </c>
+      <c r="R33">
+        <v>3.8719E-10</v>
+      </c>
+      <c r="S33">
+        <v>5.1647E-10</v>
+      </c>
+      <c r="T33">
+        <v>-1.1869E-10</v>
+      </c>
+      <c r="U33">
+        <v>5.7603E-10</v>
+      </c>
+      <c r="V33">
+        <v>3.641E-10</v>
+      </c>
+      <c r="W33">
+        <v>2.1337E-10</v>
+      </c>
+      <c r="X33">
+        <v>4.7639E-10</v>
+      </c>
+      <c r="Y33">
+        <v>6.8041E-10</v>
+      </c>
+      <c r="Z33">
+        <v>-9.976E-11</v>
+      </c>
+      <c r="AA33">
+        <v>3.0064E-10</v>
+      </c>
+      <c r="AB33">
+        <v>1.8115E-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34">
         <v>25</v>
       </c>
-      <c r="B33">
+      <c r="B34">
+        <v>3.0016E-11</v>
+      </c>
+      <c r="C34">
+        <v>-4.6417E-11</v>
+      </c>
+      <c r="D34">
+        <v>-7.718699999999999E-12</v>
+      </c>
+      <c r="E34">
+        <v>3.2235E-10</v>
+      </c>
+      <c r="F34">
+        <v>7.0766E-11</v>
+      </c>
+      <c r="G34">
+        <v>1.8271E-10</v>
+      </c>
+      <c r="H34">
+        <v>5.0501E-10</v>
+      </c>
+      <c r="I34">
+        <v>3.9785E-10</v>
+      </c>
+      <c r="J34">
+        <v>3.475E-11</v>
+      </c>
+      <c r="K34">
+        <v>-7.6906E-11</v>
+      </c>
+      <c r="L34">
+        <v>1.8423E-10</v>
+      </c>
+      <c r="M34">
+        <v>3.2301E-10</v>
+      </c>
+      <c r="N34">
+        <v>4.5819E-10</v>
+      </c>
+      <c r="O34">
+        <v>5.0313E-11</v>
+      </c>
+      <c r="P34">
+        <v>4.708099999999999E-10</v>
+      </c>
+      <c r="Q34">
+        <v>1.2718E-09</v>
+      </c>
+      <c r="R34">
+        <v>4.7743E-10</v>
+      </c>
+      <c r="S34">
+        <v>6.7418E-10</v>
+      </c>
+      <c r="T34">
+        <v>-9.3042E-11</v>
+      </c>
+      <c r="U34">
+        <v>6.9623E-10</v>
+      </c>
+      <c r="V34">
+        <v>5.0619E-10</v>
+      </c>
+      <c r="W34">
+        <v>2.1241E-10</v>
+      </c>
+      <c r="X34">
+        <v>5.034E-10</v>
+      </c>
+      <c r="Y34">
+        <v>7.167E-10</v>
+      </c>
+      <c r="Z34">
+        <v>-1.4072E-10</v>
+      </c>
+      <c r="AA34">
+        <v>3.1578E-10</v>
+      </c>
+      <c r="AB34">
+        <v>2.112E-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>16</v>
+      </c>
+      <c r="R36" t="s">
+        <v>17</v>
+      </c>
+      <c r="S36" t="s">
+        <v>18</v>
+      </c>
+      <c r="T36" t="s">
+        <v>19</v>
+      </c>
+      <c r="U36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37">
+        <v>-120</v>
+      </c>
+      <c r="B37">
+        <v>-5.9854E-11</v>
+      </c>
+      <c r="C37">
+        <v>-5.6818E-11</v>
+      </c>
+      <c r="D37">
+        <v>-8.9318E-11</v>
+      </c>
+      <c r="E37">
+        <v>-5.763E-11</v>
+      </c>
+      <c r="F37">
+        <v>-4.8062E-11</v>
+      </c>
+      <c r="G37">
+        <v>-4.7521E-11</v>
+      </c>
+      <c r="H37">
+        <v>-7.0818E-11</v>
+      </c>
+      <c r="I37">
+        <v>-2.7229E-11</v>
+      </c>
+      <c r="J37">
+        <v>-7.7063E-11</v>
+      </c>
+      <c r="K37">
+        <v>-4.3094E-11</v>
+      </c>
+      <c r="L37">
+        <v>-7.855199999999999E-11</v>
+      </c>
+      <c r="M37">
+        <v>-1.1984E-10</v>
+      </c>
+      <c r="N37">
+        <v>-8.1896E-11</v>
+      </c>
+      <c r="O37">
+        <v>-8.424E-11</v>
+      </c>
+      <c r="P37">
+        <v>-1.2157E-10</v>
+      </c>
+      <c r="Q37">
+        <v>-1.0558E-10</v>
+      </c>
+      <c r="R37">
+        <v>-9.2896E-11</v>
+      </c>
+      <c r="S37">
+        <v>-1.4826E-10</v>
+      </c>
+      <c r="T37">
+        <v>-8.1438E-11</v>
+      </c>
+      <c r="U37">
+        <v>-7.5963E-11</v>
+      </c>
+      <c r="V37">
+        <v>-6.424E-11</v>
+      </c>
+      <c r="W37">
+        <v>-1.5828E-11</v>
+      </c>
+      <c r="X37">
+        <v>-4.1542E-11</v>
+      </c>
+      <c r="Y37">
+        <v>-5.9339E-11</v>
+      </c>
+      <c r="Z37">
+        <v>-7.4969E-11</v>
+      </c>
+      <c r="AA37">
+        <v>-5.8104E-11</v>
+      </c>
+      <c r="AB37">
+        <v>-6.1003E-11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38">
+        <v>-115</v>
+      </c>
+      <c r="B38">
+        <v>-5.4172E-11</v>
+      </c>
+      <c r="C38">
+        <v>-4.5604E-11</v>
+      </c>
+      <c r="D38">
+        <v>-8.5703E-11</v>
+      </c>
+      <c r="E38">
+        <v>-6.5932E-11</v>
+      </c>
+      <c r="F38">
+        <v>-6.127099999999999E-11</v>
+      </c>
+      <c r="G38">
+        <v>-1.0049E-10</v>
+      </c>
+      <c r="H38">
+        <v>-9.2807E-11</v>
+      </c>
+      <c r="I38">
+        <v>-7.2531E-11</v>
+      </c>
+      <c r="J38">
+        <v>-7.5E-11</v>
+      </c>
+      <c r="K38">
+        <v>-8.006300000000001E-11</v>
+      </c>
+      <c r="L38">
+        <v>-9.053100000000001E-11</v>
+      </c>
+      <c r="M38">
+        <v>-7.7349E-11</v>
+      </c>
+      <c r="N38">
+        <v>-7.4792E-11</v>
+      </c>
+      <c r="O38">
+        <v>-8.225E-11</v>
+      </c>
+      <c r="P38">
+        <v>-1.148E-10</v>
+      </c>
+      <c r="Q38">
+        <v>-7.3781E-11</v>
+      </c>
+      <c r="R38">
+        <v>-1.0402E-10</v>
+      </c>
+      <c r="S38">
+        <v>-1.1189E-10</v>
+      </c>
+      <c r="T38">
+        <v>-7.9271E-11</v>
+      </c>
+      <c r="U38">
+        <v>-1.0421E-10</v>
+      </c>
+      <c r="V38">
+        <v>-9.5688E-11</v>
+      </c>
+      <c r="W38">
+        <v>-3.5318E-11</v>
+      </c>
+      <c r="X38">
+        <v>-5.6635E-11</v>
+      </c>
+      <c r="Y38">
+        <v>-5.8745E-11</v>
+      </c>
+      <c r="Z38">
+        <v>-7.981299999999999E-11</v>
+      </c>
+      <c r="AA38">
+        <v>-6.813500000000001E-11</v>
+      </c>
+      <c r="AB38">
+        <v>-7.6118E-11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39">
+        <v>-110</v>
+      </c>
+      <c r="B39">
+        <v>-2.7401E-11</v>
+      </c>
+      <c r="C39">
+        <v>-5.4214E-11</v>
+      </c>
+      <c r="D39">
+        <v>-7.0099E-11</v>
+      </c>
+      <c r="E39">
+        <v>-9.127099999999999E-11</v>
+      </c>
+      <c r="F39">
+        <v>-5.1042E-11</v>
+      </c>
+      <c r="G39">
+        <v>-9.5615E-11</v>
+      </c>
+      <c r="H39">
+        <v>-4.9594E-11</v>
+      </c>
+      <c r="I39">
+        <v>-1.027E-10</v>
+      </c>
+      <c r="J39">
+        <v>-9.522899999999999E-11</v>
+      </c>
+      <c r="K39">
+        <v>-6.9781E-11</v>
+      </c>
+      <c r="L39">
+        <v>-1.0672E-10</v>
+      </c>
+      <c r="M39">
+        <v>-6.4714E-11</v>
+      </c>
+      <c r="N39">
+        <v>-1.0104E-10</v>
+      </c>
+      <c r="O39">
+        <v>-1.1601E-10</v>
+      </c>
+      <c r="P39">
+        <v>-1.1909E-10</v>
+      </c>
+      <c r="Q39">
+        <v>-8.15E-11</v>
+      </c>
+      <c r="R39">
+        <v>-8.944799999999999E-11</v>
+      </c>
+      <c r="S39">
+        <v>-1.3774E-10</v>
+      </c>
+      <c r="T39">
+        <v>-1.0023E-10</v>
+      </c>
+      <c r="U39">
+        <v>-1.5386E-10</v>
+      </c>
+      <c r="V39">
+        <v>-7.1667E-11</v>
+      </c>
+      <c r="W39">
+        <v>-2.5375E-11</v>
+      </c>
+      <c r="X39">
+        <v>-5.9052E-11</v>
+      </c>
+      <c r="Y39">
+        <v>-9.231800000000001E-11</v>
+      </c>
+      <c r="Z39">
+        <v>-5.8688E-11</v>
+      </c>
+      <c r="AA39">
+        <v>-7.374E-11</v>
+      </c>
+      <c r="AB39">
+        <v>-6.889599999999999E-11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40">
+        <v>-105</v>
+      </c>
+      <c r="B40">
+        <v>-6.1932E-11</v>
+      </c>
+      <c r="C40">
+        <v>-5.8802E-11</v>
+      </c>
+      <c r="D40">
+        <v>-8.5057E-11</v>
+      </c>
+      <c r="E40">
+        <v>-9.1578E-11</v>
+      </c>
+      <c r="F40">
+        <v>-8.3495E-11</v>
+      </c>
+      <c r="G40">
+        <v>-6.4333E-11</v>
+      </c>
+      <c r="H40">
+        <v>-7.5854E-11</v>
+      </c>
+      <c r="I40">
+        <v>-1.0833E-10</v>
+      </c>
+      <c r="J40">
+        <v>-8.6104E-11</v>
+      </c>
+      <c r="K40">
+        <v>-1.0847E-10</v>
+      </c>
+      <c r="L40">
+        <v>-1.4539E-10</v>
+      </c>
+      <c r="M40">
+        <v>-7.6656E-11</v>
+      </c>
+      <c r="N40">
+        <v>-1.1344E-10</v>
+      </c>
+      <c r="O40">
+        <v>-1.2508E-10</v>
+      </c>
+      <c r="P40">
+        <v>-3.1703E-10</v>
+      </c>
+      <c r="Q40">
+        <v>-9.1719E-11</v>
+      </c>
+      <c r="R40">
+        <v>-9.2719E-11</v>
+      </c>
+      <c r="S40">
+        <v>-2.8015E-10</v>
+      </c>
+      <c r="T40">
+        <v>-8.874E-11</v>
+      </c>
+      <c r="U40">
+        <v>-2.0666E-10</v>
+      </c>
+      <c r="V40">
+        <v>-1.2745E-10</v>
+      </c>
+      <c r="W40">
+        <v>-4.0172E-11</v>
+      </c>
+      <c r="X40">
+        <v>-3.8698E-11</v>
+      </c>
+      <c r="Y40">
+        <v>-1.051E-10</v>
+      </c>
+      <c r="Z40">
+        <v>-5.8958E-11</v>
+      </c>
+      <c r="AA40">
+        <v>-1.1993E-10</v>
+      </c>
+      <c r="AB40">
+        <v>-1.0975E-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41">
+        <v>-100</v>
+      </c>
+      <c r="B41">
+        <v>-4.3219E-11</v>
+      </c>
+      <c r="C41">
+        <v>-7.624E-11</v>
+      </c>
+      <c r="D41">
+        <v>-6.6703E-11</v>
+      </c>
+      <c r="E41">
+        <v>-7.557799999999999E-11</v>
+      </c>
+      <c r="F41">
+        <v>-2.6494E-10</v>
+      </c>
+      <c r="G41">
+        <v>-1.6646E-10</v>
+      </c>
+      <c r="H41">
+        <v>-1.0883E-10</v>
+      </c>
+      <c r="I41">
+        <v>-1.2283E-10</v>
+      </c>
+      <c r="J41">
+        <v>-9.3354E-11</v>
+      </c>
+      <c r="K41">
+        <v>-1.1335E-10</v>
+      </c>
+      <c r="L41">
+        <v>-1.8769E-10</v>
+      </c>
+      <c r="M41">
+        <v>-1.0521E-10</v>
+      </c>
+      <c r="N41">
+        <v>-1.8943E-10</v>
+      </c>
+      <c r="O41">
+        <v>-1.4898E-10</v>
+      </c>
+      <c r="P41">
+        <v>-4.8635E-10</v>
+      </c>
+      <c r="Q41">
+        <v>-1.4489E-10</v>
+      </c>
+      <c r="R41">
+        <v>-2.4496E-10</v>
+      </c>
+      <c r="S41">
+        <v>-6.1991E-10</v>
+      </c>
+      <c r="T41">
+        <v>-2.4013E-10</v>
+      </c>
+      <c r="U41">
+        <v>-2.8038E-10</v>
+      </c>
+      <c r="V41">
+        <v>-7.451E-11</v>
+      </c>
+      <c r="W41">
+        <v>-6.6937E-11</v>
+      </c>
+      <c r="X41">
+        <v>-1.1135E-10</v>
+      </c>
+      <c r="Y41">
+        <v>-6.8365E-11</v>
+      </c>
+      <c r="Z41">
+        <v>-6.4177E-11</v>
+      </c>
+      <c r="AA41">
+        <v>-9.9344E-11</v>
+      </c>
+      <c r="AB41">
+        <v>-1.2069E-10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42">
+        <v>-95</v>
+      </c>
+      <c r="B42">
+        <v>-7.3698E-11</v>
+      </c>
+      <c r="C42">
+        <v>-9.2109E-11</v>
+      </c>
+      <c r="D42">
+        <v>-8.039600000000001E-11</v>
+      </c>
+      <c r="E42">
+        <v>-1.4333E-10</v>
+      </c>
+      <c r="F42">
+        <v>-5.027E-10</v>
+      </c>
+      <c r="G42">
+        <v>-2.0144E-10</v>
+      </c>
+      <c r="H42">
+        <v>-1.1304E-10</v>
+      </c>
+      <c r="I42">
+        <v>-2.1734E-10</v>
+      </c>
+      <c r="J42">
+        <v>-1.1733E-10</v>
+      </c>
+      <c r="K42">
+        <v>-1.7177E-10</v>
+      </c>
+      <c r="L42">
+        <v>-2.4573E-10</v>
+      </c>
+      <c r="M42">
+        <v>-1.4441E-10</v>
+      </c>
+      <c r="N42">
+        <v>-3.2993E-10</v>
+      </c>
+      <c r="O42">
+        <v>-2.252E-10</v>
+      </c>
+      <c r="P42">
+        <v>-8.2652E-10</v>
+      </c>
+      <c r="Q42">
+        <v>-2.7564E-10</v>
+      </c>
+      <c r="R42">
+        <v>-4.234E-10</v>
+      </c>
+      <c r="S42">
+        <v>-9.5291E-10</v>
+      </c>
+      <c r="T42">
+        <v>-1.1484E-09</v>
+      </c>
+      <c r="U42">
+        <v>-4.9303E-10</v>
+      </c>
+      <c r="V42">
+        <v>-1.4928E-10</v>
+      </c>
+      <c r="W42">
+        <v>-1.1082E-10</v>
+      </c>
+      <c r="X42">
+        <v>-4.1326E-10</v>
+      </c>
+      <c r="Y42">
+        <v>-2.374E-10</v>
+      </c>
+      <c r="Z42">
+        <v>-8.8167E-11</v>
+      </c>
+      <c r="AA42">
+        <v>-9.380200000000001E-11</v>
+      </c>
+      <c r="AB42">
+        <v>-1.9518E-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43">
+        <v>-90</v>
+      </c>
+      <c r="B43">
+        <v>-4.6432E-11</v>
+      </c>
+      <c r="C43">
+        <v>-8.8505E-11</v>
+      </c>
+      <c r="D43">
+        <v>-1.164E-10</v>
+      </c>
+      <c r="E43">
+        <v>-3.5858E-10</v>
+      </c>
+      <c r="F43">
+        <v>-6.7074E-10</v>
+      </c>
+      <c r="G43">
+        <v>-3.2815E-10</v>
+      </c>
+      <c r="H43">
+        <v>-4.6021E-11</v>
+      </c>
+      <c r="I43">
+        <v>-3.5089E-10</v>
+      </c>
+      <c r="J43">
+        <v>-1.9732E-10</v>
+      </c>
+      <c r="K43">
+        <v>-3.2341E-10</v>
+      </c>
+      <c r="L43">
+        <v>-4.2687E-10</v>
+      </c>
+      <c r="M43">
+        <v>-3.3132E-10</v>
+      </c>
+      <c r="N43">
+        <v>-6.0733E-10</v>
+      </c>
+      <c r="O43">
+        <v>-4.2943E-10</v>
+      </c>
+      <c r="P43">
+        <v>-1.0804E-09</v>
+      </c>
+      <c r="Q43">
+        <v>-5.1485E-10</v>
+      </c>
+      <c r="R43">
+        <v>-7.2276E-10</v>
+      </c>
+      <c r="S43">
+        <v>-2.184E-09</v>
+      </c>
+      <c r="T43">
+        <v>-1.3251E-09</v>
+      </c>
+      <c r="U43">
+        <v>-9.9047E-10</v>
+      </c>
+      <c r="V43">
+        <v>-2.9797E-10</v>
+      </c>
+      <c r="W43">
+        <v>-1.5819E-10</v>
+      </c>
+      <c r="X43">
+        <v>-5.865E-10</v>
+      </c>
+      <c r="Y43">
+        <v>-6.5364E-10</v>
+      </c>
+      <c r="Z43">
+        <v>-1.1095E-10</v>
+      </c>
+      <c r="AA43">
+        <v>-1.5726E-10</v>
+      </c>
+      <c r="AB43">
+        <v>-3.6434E-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44">
+        <v>-85</v>
+      </c>
+      <c r="B44">
+        <v>-8.969799999999999E-11</v>
+      </c>
+      <c r="C44">
+        <v>-1.3072E-10</v>
+      </c>
+      <c r="D44">
+        <v>-1.6131E-10</v>
+      </c>
+      <c r="E44">
+        <v>-4.5258E-10</v>
+      </c>
+      <c r="F44">
+        <v>-8.2707E-10</v>
+      </c>
+      <c r="G44">
+        <v>-5.317E-10</v>
+      </c>
+      <c r="H44">
+        <v>-5.8745E-11</v>
+      </c>
+      <c r="I44">
+        <v>-6.7211E-10</v>
+      </c>
+      <c r="J44">
+        <v>-2.7395E-10</v>
+      </c>
+      <c r="K44">
+        <v>-8.3299E-10</v>
+      </c>
+      <c r="L44">
+        <v>-8.2249E-10</v>
+      </c>
+      <c r="M44">
+        <v>-4.7328E-10</v>
+      </c>
+      <c r="N44">
+        <v>-1.0721E-09</v>
+      </c>
+      <c r="O44">
+        <v>-6.2226E-10</v>
+      </c>
+      <c r="P44">
+        <v>-1.2544E-09</v>
+      </c>
+      <c r="Q44">
+        <v>-9.2156E-10</v>
+      </c>
+      <c r="R44">
+        <v>-1.3156E-09</v>
+      </c>
+      <c r="S44">
+        <v>-4.1128E-09</v>
+      </c>
+      <c r="T44">
+        <v>-1.6541E-09</v>
+      </c>
+      <c r="U44">
+        <v>-2.1628E-09</v>
+      </c>
+      <c r="V44">
+        <v>-3.2152E-10</v>
+      </c>
+      <c r="W44">
+        <v>-2.7169E-10</v>
+      </c>
+      <c r="X44">
+        <v>-7.2686E-10</v>
+      </c>
+      <c r="Y44">
+        <v>-8.5451E-10</v>
+      </c>
+      <c r="Z44">
+        <v>-1.4963E-10</v>
+      </c>
+      <c r="AA44">
+        <v>-2.5011E-10</v>
+      </c>
+      <c r="AB44">
+        <v>-6.4836E-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45">
+        <v>-80</v>
+      </c>
+      <c r="B45">
+        <v>-5.6203E-11</v>
+      </c>
+      <c r="C45">
+        <v>-2.3564E-10</v>
+      </c>
+      <c r="D45">
+        <v>-2.9181E-10</v>
+      </c>
+      <c r="E45">
+        <v>-7.0388E-10</v>
+      </c>
+      <c r="F45">
+        <v>-9.6297E-10</v>
+      </c>
+      <c r="G45">
+        <v>-7.8677E-10</v>
+      </c>
+      <c r="H45">
+        <v>-9.0563E-11</v>
+      </c>
+      <c r="I45">
+        <v>-1.0462E-09</v>
+      </c>
+      <c r="J45">
+        <v>-3.4591E-10</v>
+      </c>
+      <c r="K45">
+        <v>-1.067E-09</v>
+      </c>
+      <c r="L45">
+        <v>-1.6019E-09</v>
+      </c>
+      <c r="M45">
+        <v>-6.6208E-10</v>
+      </c>
+      <c r="N45">
+        <v>-1.796E-09</v>
+      </c>
+      <c r="O45">
+        <v>-1.1285E-09</v>
+      </c>
+      <c r="P45">
+        <v>-1.556E-09</v>
+      </c>
+      <c r="Q45">
+        <v>-1.6319E-09</v>
+      </c>
+      <c r="R45">
+        <v>-2.1244E-09</v>
+      </c>
+      <c r="S45">
+        <v>-7.1813E-09</v>
+      </c>
+      <c r="T45">
+        <v>-2.2797E-09</v>
+      </c>
+      <c r="U45">
+        <v>-4.0314E-09</v>
+      </c>
+      <c r="V45">
+        <v>-3.8305E-10</v>
+      </c>
+      <c r="W45">
+        <v>-4.5342E-10</v>
+      </c>
+      <c r="X45">
+        <v>-8.1915E-10</v>
+      </c>
+      <c r="Y45">
+        <v>-1.3192E-09</v>
+      </c>
+      <c r="Z45">
+        <v>-2.1025E-10</v>
+      </c>
+      <c r="AA45">
+        <v>-4.0751E-10</v>
+      </c>
+      <c r="AB45">
+        <v>-1.0804E-09</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46">
+        <v>-75</v>
+      </c>
+      <c r="B46">
+        <v>-1.1901E-10</v>
+      </c>
+      <c r="C46">
+        <v>-3.6646E-10</v>
+      </c>
+      <c r="D46">
+        <v>-3.7487E-10</v>
+      </c>
+      <c r="E46">
+        <v>-1.1E-09</v>
+      </c>
+      <c r="F46">
+        <v>-1.0995E-09</v>
+      </c>
+      <c r="G46">
+        <v>-1.1378E-09</v>
+      </c>
+      <c r="H46">
+        <v>-1.4104E-10</v>
+      </c>
+      <c r="I46">
+        <v>-1.6835E-09</v>
+      </c>
+      <c r="J46">
+        <v>-4.9282E-10</v>
+      </c>
+      <c r="K46">
+        <v>-1.4896E-09</v>
+      </c>
+      <c r="L46">
+        <v>-2.6812E-09</v>
+      </c>
+      <c r="M46">
+        <v>-9.459E-10</v>
+      </c>
+      <c r="N46">
+        <v>-2.568E-09</v>
+      </c>
+      <c r="O46">
+        <v>-1.8851E-09</v>
+      </c>
+      <c r="P46">
+        <v>-1.9714E-09</v>
+      </c>
+      <c r="Q46">
+        <v>-2.4302E-09</v>
+      </c>
+      <c r="R46">
+        <v>-2.9597E-09</v>
+      </c>
+      <c r="S46">
+        <v>-1.1241E-08</v>
+      </c>
+      <c r="T46">
+        <v>-3.2185E-09</v>
+      </c>
+      <c r="U46">
+        <v>-6.3412E-09</v>
+      </c>
+      <c r="V46">
+        <v>-5.7386E-10</v>
+      </c>
+      <c r="W46">
+        <v>-6.6513E-10</v>
+      </c>
+      <c r="X46">
+        <v>-9.0962E-10</v>
+      </c>
+      <c r="Y46">
+        <v>-1.3982E-09</v>
+      </c>
+      <c r="Z46">
+        <v>-3.223E-10</v>
+      </c>
+      <c r="AA46">
+        <v>-5.8692E-10</v>
+      </c>
+      <c r="AB46">
+        <v>-1.8329E-09</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47">
+        <v>-70</v>
+      </c>
+      <c r="B47">
+        <v>-1.6496E-10</v>
+      </c>
+      <c r="C47">
+        <v>-5.7608E-10</v>
+      </c>
+      <c r="D47">
+        <v>-5.7798E-10</v>
+      </c>
+      <c r="E47">
+        <v>-1.395E-09</v>
+      </c>
+      <c r="F47">
+        <v>-1.286E-09</v>
+      </c>
+      <c r="G47">
+        <v>-1.6716E-09</v>
+      </c>
+      <c r="H47">
+        <v>-1.9973E-10</v>
+      </c>
+      <c r="I47">
+        <v>-2.4807E-09</v>
+      </c>
+      <c r="J47">
+        <v>-7.3111E-10</v>
+      </c>
+      <c r="K47">
+        <v>-2.041E-09</v>
+      </c>
+      <c r="L47">
+        <v>-3.808E-09</v>
+      </c>
+      <c r="M47">
+        <v>-1.2049E-09</v>
+      </c>
+      <c r="N47">
+        <v>-3.5076E-09</v>
+      </c>
+      <c r="O47">
+        <v>-2.7873E-09</v>
+      </c>
+      <c r="P47">
+        <v>-2.5219E-09</v>
+      </c>
+      <c r="Q47">
+        <v>-3.3093E-09</v>
+      </c>
+      <c r="R47">
+        <v>-3.9299E-09</v>
+      </c>
+      <c r="S47">
+        <v>-1.5418E-08</v>
+      </c>
+      <c r="T47">
+        <v>-4.4961E-09</v>
+      </c>
+      <c r="U47">
+        <v>-8.871499999999999E-09</v>
+      </c>
+      <c r="V47">
+        <v>-6.6866E-10</v>
+      </c>
+      <c r="W47">
+        <v>-9.1102E-10</v>
+      </c>
+      <c r="X47">
+        <v>-1.013E-09</v>
+      </c>
+      <c r="Y47">
+        <v>-1.6807E-09</v>
+      </c>
+      <c r="Z47">
+        <v>-5.5908E-10</v>
+      </c>
+      <c r="AA47">
+        <v>-8.5033E-10</v>
+      </c>
+      <c r="AB47">
+        <v>-2.9044E-09</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48">
+        <v>-65</v>
+      </c>
+      <c r="B48">
+        <v>-1.9479E-10</v>
+      </c>
+      <c r="C48">
+        <v>-8.430199999999999E-10</v>
+      </c>
+      <c r="D48">
+        <v>-8.3022E-10</v>
+      </c>
+      <c r="E48">
+        <v>-1.7828E-09</v>
+      </c>
+      <c r="F48">
+        <v>-1.4702E-09</v>
+      </c>
+      <c r="G48">
+        <v>-2.3029E-09</v>
+      </c>
+      <c r="H48">
+        <v>-2.4742E-10</v>
+      </c>
+      <c r="I48">
+        <v>-3.192E-09</v>
+      </c>
+      <c r="J48">
+        <v>-1.0271E-09</v>
+      </c>
+      <c r="K48">
+        <v>-2.8819E-09</v>
+      </c>
+      <c r="L48">
+        <v>-5.2288E-09</v>
+      </c>
+      <c r="M48">
+        <v>-1.3846E-09</v>
+      </c>
+      <c r="N48">
+        <v>-4.3E-09</v>
+      </c>
+      <c r="O48">
+        <v>-3.7571E-09</v>
+      </c>
+      <c r="P48">
+        <v>-3.1557E-09</v>
+      </c>
+      <c r="Q48">
+        <v>-3.8356E-09</v>
+      </c>
+      <c r="R48">
+        <v>-4.7384E-09</v>
+      </c>
+      <c r="S48">
+        <v>-1.8718E-08</v>
+      </c>
+      <c r="T48">
+        <v>-5.9459E-09</v>
+      </c>
+      <c r="U48">
+        <v>-1.1164E-08</v>
+      </c>
+      <c r="V48">
+        <v>-7.6463E-10</v>
+      </c>
+      <c r="W48">
+        <v>-1.0401E-09</v>
+      </c>
+      <c r="X48">
+        <v>-1.0782E-09</v>
+      </c>
+      <c r="Y48">
+        <v>-1.9566E-09</v>
+      </c>
+      <c r="Z48">
+        <v>-8.628E-10</v>
+      </c>
+      <c r="AA48">
+        <v>-1.1192E-09</v>
+      </c>
+      <c r="AB48">
+        <v>-4.3741E-09</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49">
+        <v>-60</v>
+      </c>
+      <c r="B49">
+        <v>-3.0117E-10</v>
+      </c>
+      <c r="C49">
+        <v>-1.2257E-09</v>
+      </c>
+      <c r="D49">
+        <v>-1.1068E-09</v>
+      </c>
+      <c r="E49">
+        <v>-2.1224E-09</v>
+      </c>
+      <c r="F49">
+        <v>-1.7029E-09</v>
+      </c>
+      <c r="G49">
+        <v>-2.8746E-09</v>
+      </c>
+      <c r="H49">
+        <v>-2.8889E-10</v>
+      </c>
+      <c r="I49">
+        <v>-3.7511E-09</v>
+      </c>
+      <c r="J49">
+        <v>-1.3415E-09</v>
+      </c>
+      <c r="K49">
+        <v>-4.0001E-09</v>
+      </c>
+      <c r="L49">
+        <v>-6.8335E-09</v>
+      </c>
+      <c r="M49">
+        <v>-1.6164E-09</v>
+      </c>
+      <c r="N49">
+        <v>-5.0571E-09</v>
+      </c>
+      <c r="O49">
+        <v>-4.8246E-09</v>
+      </c>
+      <c r="P49">
+        <v>-3.7688E-09</v>
+      </c>
+      <c r="Q49">
+        <v>-4.1628E-09</v>
+      </c>
+      <c r="R49">
+        <v>-5.3217E-09</v>
+      </c>
+      <c r="S49">
+        <v>-2.0301E-08</v>
+      </c>
+      <c r="T49">
+        <v>-7.2887E-09</v>
+      </c>
+      <c r="U49">
+        <v>-1.2694E-08</v>
+      </c>
+      <c r="V49">
+        <v>-8.2868E-10</v>
+      </c>
+      <c r="W49">
+        <v>-1.1369E-09</v>
+      </c>
+      <c r="X49">
+        <v>-1.1373E-09</v>
+      </c>
+      <c r="Y49">
+        <v>-2.4014E-09</v>
+      </c>
+      <c r="Z49">
+        <v>-1.2982E-09</v>
+      </c>
+      <c r="AA49">
+        <v>-1.4057E-09</v>
+      </c>
+      <c r="AB49">
+        <v>-5.9036E-09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50">
+        <v>-55</v>
+      </c>
+      <c r="B50">
+        <v>-3.5224E-10</v>
+      </c>
+      <c r="C50">
+        <v>-1.6121E-09</v>
+      </c>
+      <c r="D50">
+        <v>-1.3703E-09</v>
+      </c>
+      <c r="E50">
+        <v>-2.6138E-09</v>
+      </c>
+      <c r="F50">
+        <v>-1.9785E-09</v>
+      </c>
+      <c r="G50">
+        <v>-3.3457E-09</v>
+      </c>
+      <c r="H50">
+        <v>-4.2937E-10</v>
+      </c>
+      <c r="I50">
+        <v>-3.9537E-09</v>
+      </c>
+      <c r="J50">
+        <v>-1.7118E-09</v>
+      </c>
+      <c r="K50">
+        <v>-5.0011E-09</v>
+      </c>
+      <c r="L50">
+        <v>-8.3515E-09</v>
+      </c>
+      <c r="M50">
+        <v>-1.5785E-09</v>
+      </c>
+      <c r="N50">
+        <v>-5.2673E-09</v>
+      </c>
+      <c r="O50">
+        <v>-5.5655E-09</v>
+      </c>
+      <c r="P50">
+        <v>-4.1562E-09</v>
+      </c>
+      <c r="Q50">
+        <v>-4.121E-09</v>
+      </c>
+      <c r="R50">
+        <v>-5.5826E-09</v>
+      </c>
+      <c r="S50">
+        <v>-2.0537E-08</v>
+      </c>
+      <c r="T50">
+        <v>-8.0312E-09</v>
+      </c>
+      <c r="U50">
+        <v>-1.3171E-08</v>
+      </c>
+      <c r="V50">
+        <v>-9.390400000000001E-10</v>
+      </c>
+      <c r="W50">
+        <v>-1.1132E-09</v>
+      </c>
+      <c r="X50">
+        <v>-1.106E-09</v>
+      </c>
+      <c r="Y50">
+        <v>-2.9529E-09</v>
+      </c>
+      <c r="Z50">
+        <v>-1.7803E-09</v>
+      </c>
+      <c r="AA50">
+        <v>-1.5739E-09</v>
+      </c>
+      <c r="AB50">
+        <v>-7.3127E-09</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51">
+        <v>-50</v>
+      </c>
+      <c r="B51">
+        <v>-4.3261E-10</v>
+      </c>
+      <c r="C51">
+        <v>-1.9613E-09</v>
+      </c>
+      <c r="D51">
+        <v>-1.6379E-09</v>
+      </c>
+      <c r="E51">
+        <v>-2.8675E-09</v>
+      </c>
+      <c r="F51">
+        <v>-2.2416E-09</v>
+      </c>
+      <c r="G51">
+        <v>-3.6573E-09</v>
+      </c>
+      <c r="H51">
+        <v>-5.2393E-10</v>
+      </c>
+      <c r="I51">
+        <v>-3.9014E-09</v>
+      </c>
+      <c r="J51">
+        <v>-1.9863E-09</v>
+      </c>
+      <c r="K51">
+        <v>-5.8652E-09</v>
+      </c>
+      <c r="L51">
+        <v>-9.0909E-09</v>
+      </c>
+      <c r="M51">
+        <v>-1.5264E-09</v>
+      </c>
+      <c r="N51">
+        <v>-5.1391E-09</v>
+      </c>
+      <c r="O51">
+        <v>-5.9427E-09</v>
+      </c>
+      <c r="P51">
+        <v>-4.3253E-09</v>
+      </c>
+      <c r="Q51">
+        <v>-3.7441E-09</v>
+      </c>
+      <c r="R51">
+        <v>-5.5114E-09</v>
+      </c>
+      <c r="S51">
+        <v>-1.9375E-08</v>
+      </c>
+      <c r="T51">
+        <v>-8.379E-09</v>
+      </c>
+      <c r="U51">
+        <v>-1.247E-08</v>
+      </c>
+      <c r="V51">
+        <v>-9.289E-10</v>
+      </c>
+      <c r="W51">
+        <v>-1.0483E-09</v>
+      </c>
+      <c r="X51">
+        <v>-1.0879E-09</v>
+      </c>
+      <c r="Y51">
+        <v>-3.5619E-09</v>
+      </c>
+      <c r="Z51">
+        <v>-2.3154E-09</v>
+      </c>
+      <c r="AA51">
+        <v>-1.67E-09</v>
+      </c>
+      <c r="AB51">
+        <v>-8.1198E-09</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52">
+        <v>-45</v>
+      </c>
+      <c r="B52">
+        <v>-5.1411E-10</v>
+      </c>
+      <c r="C52">
+        <v>-2.1867E-09</v>
+      </c>
+      <c r="D52">
+        <v>-1.865E-09</v>
+      </c>
+      <c r="E52">
+        <v>-2.9577E-09</v>
+      </c>
+      <c r="F52">
+        <v>-2.4475E-09</v>
+      </c>
+      <c r="G52">
+        <v>-3.565E-09</v>
+      </c>
+      <c r="H52">
+        <v>-6.7558E-10</v>
+      </c>
+      <c r="I52">
+        <v>-3.648E-09</v>
+      </c>
+      <c r="J52">
+        <v>-2.151E-09</v>
+      </c>
+      <c r="K52">
+        <v>-6.3523E-09</v>
+      </c>
+      <c r="L52">
+        <v>-9.5729E-09</v>
+      </c>
+      <c r="M52">
+        <v>-1.3752E-09</v>
+      </c>
+      <c r="N52">
+        <v>-4.525E-09</v>
+      </c>
+      <c r="O52">
+        <v>-6.1141E-09</v>
+      </c>
+      <c r="P52">
+        <v>-4.3488E-09</v>
+      </c>
+      <c r="Q52">
+        <v>-3.2073E-09</v>
+      </c>
+      <c r="R52">
+        <v>-5.1319E-09</v>
+      </c>
+      <c r="S52">
+        <v>-1.7521E-08</v>
+      </c>
+      <c r="T52">
+        <v>-8.3246E-09</v>
+      </c>
+      <c r="U52">
+        <v>-1.0899E-08</v>
+      </c>
+      <c r="V52">
+        <v>-8.5396E-10</v>
+      </c>
+      <c r="W52">
+        <v>-9.5499E-10</v>
+      </c>
+      <c r="X52">
+        <v>-9.3096E-10</v>
+      </c>
+      <c r="Y52">
+        <v>-4.2362E-09</v>
+      </c>
+      <c r="Z52">
+        <v>-2.5911E-09</v>
+      </c>
+      <c r="AA52">
+        <v>-1.6408E-09</v>
+      </c>
+      <c r="AB52">
+        <v>-8.3202E-09</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53">
+        <v>-40</v>
+      </c>
+      <c r="B53">
+        <v>-5.272E-10</v>
+      </c>
+      <c r="C53">
+        <v>-2.2732E-09</v>
+      </c>
+      <c r="D53">
+        <v>-1.8966E-09</v>
+      </c>
+      <c r="E53">
+        <v>-2.8668E-09</v>
+      </c>
+      <c r="F53">
+        <v>-2.5362E-09</v>
+      </c>
+      <c r="G53">
+        <v>-3.3093E-09</v>
+      </c>
+      <c r="H53">
+        <v>-7.1527E-10</v>
+      </c>
+      <c r="I53">
+        <v>-3.2236E-09</v>
+      </c>
+      <c r="J53">
+        <v>-2.1549E-09</v>
+      </c>
+      <c r="K53">
+        <v>-6.3814E-09</v>
+      </c>
+      <c r="L53">
+        <v>-9.3851E-09</v>
+      </c>
+      <c r="M53">
+        <v>-1.2193E-09</v>
+      </c>
+      <c r="N53">
+        <v>-3.8603E-09</v>
+      </c>
+      <c r="O53">
+        <v>-5.8939E-09</v>
+      </c>
+      <c r="P53">
+        <v>-4.1237E-09</v>
+      </c>
+      <c r="Q53">
+        <v>-2.5968E-09</v>
+      </c>
+      <c r="R53">
+        <v>-4.6477E-09</v>
+      </c>
+      <c r="S53">
+        <v>-1.5295E-08</v>
+      </c>
+      <c r="T53">
+        <v>-7.7854E-09</v>
+      </c>
+      <c r="U53">
+        <v>-8.800300000000001E-09</v>
+      </c>
+      <c r="V53">
+        <v>-7.2522E-10</v>
+      </c>
+      <c r="W53">
+        <v>-8.4487E-10</v>
+      </c>
+      <c r="X53">
+        <v>-8.6695E-10</v>
+      </c>
+      <c r="Y53">
+        <v>-4.856E-09</v>
+      </c>
+      <c r="Z53">
+        <v>-2.7896E-09</v>
+      </c>
+      <c r="AA53">
+        <v>-1.4432E-09</v>
+      </c>
+      <c r="AB53">
+        <v>-7.8879E-09</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54">
+        <v>-35</v>
+      </c>
+      <c r="B54">
+        <v>-5.3795E-10</v>
+      </c>
+      <c r="C54">
+        <v>-2.1543E-09</v>
+      </c>
+      <c r="D54">
+        <v>-1.8965E-09</v>
+      </c>
+      <c r="E54">
+        <v>-2.6451E-09</v>
+      </c>
+      <c r="F54">
+        <v>-2.4575E-09</v>
+      </c>
+      <c r="G54">
+        <v>-2.9357E-09</v>
+      </c>
+      <c r="H54">
+        <v>-7.0549E-10</v>
+      </c>
+      <c r="I54">
+        <v>-2.7862E-09</v>
+      </c>
+      <c r="J54">
+        <v>-2.0259E-09</v>
+      </c>
+      <c r="K54">
+        <v>-5.9729E-09</v>
+      </c>
+      <c r="L54">
+        <v>-8.6691E-09</v>
+      </c>
+      <c r="M54">
+        <v>-1.0002E-09</v>
+      </c>
+      <c r="N54">
+        <v>-3.1144E-09</v>
+      </c>
+      <c r="O54">
+        <v>-5.5584E-09</v>
+      </c>
+      <c r="P54">
+        <v>-3.7934E-09</v>
+      </c>
+      <c r="Q54">
+        <v>-1.981E-09</v>
+      </c>
+      <c r="R54">
+        <v>-4.1221E-09</v>
+      </c>
+      <c r="S54">
+        <v>-1.2823E-08</v>
+      </c>
+      <c r="T54">
+        <v>-7.0704E-09</v>
+      </c>
+      <c r="U54">
+        <v>-6.7545E-09</v>
+      </c>
+      <c r="V54">
+        <v>-5.9493E-10</v>
+      </c>
+      <c r="W54">
+        <v>-7.0614E-10</v>
+      </c>
+      <c r="X54">
+        <v>-7.376E-10</v>
+      </c>
+      <c r="Y54">
+        <v>-4.7687E-09</v>
+      </c>
+      <c r="Z54">
+        <v>-2.7773E-09</v>
+      </c>
+      <c r="AA54">
+        <v>-1.2989E-09</v>
+      </c>
+      <c r="AB54">
+        <v>-6.8923E-09</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55">
+        <v>-30</v>
+      </c>
+      <c r="B55">
+        <v>-5.3281E-10</v>
+      </c>
+      <c r="C55">
+        <v>-1.9538E-09</v>
+      </c>
+      <c r="D55">
+        <v>-1.774E-09</v>
+      </c>
+      <c r="E55">
+        <v>-2.2975E-09</v>
+      </c>
+      <c r="F55">
+        <v>-2.2995E-09</v>
+      </c>
+      <c r="G55">
+        <v>-2.5416E-09</v>
+      </c>
+      <c r="H55">
+        <v>-6.9363E-10</v>
+      </c>
+      <c r="I55">
+        <v>-2.41E-09</v>
+      </c>
+      <c r="J55">
+        <v>-1.847E-09</v>
+      </c>
+      <c r="K55">
+        <v>-5.4768E-09</v>
+      </c>
+      <c r="L55">
+        <v>-7.9049E-09</v>
+      </c>
+      <c r="M55">
+        <v>-8.9021E-10</v>
+      </c>
+      <c r="N55">
+        <v>-2.5387E-09</v>
+      </c>
+      <c r="O55">
+        <v>-4.9149E-09</v>
+      </c>
+      <c r="P55">
+        <v>-3.3544E-09</v>
+      </c>
+      <c r="Q55">
+        <v>-1.4373E-09</v>
+      </c>
+      <c r="R55">
+        <v>-3.6159E-09</v>
+      </c>
+      <c r="S55">
+        <v>-1.0789E-08</v>
+      </c>
+      <c r="T55">
+        <v>-6.3237E-09</v>
+      </c>
+      <c r="U55">
+        <v>-4.9384E-09</v>
+      </c>
+      <c r="V55">
+        <v>-5.2645E-10</v>
+      </c>
+      <c r="W55">
+        <v>-6.2238E-10</v>
+      </c>
+      <c r="X55">
+        <v>-5.7049E-10</v>
+      </c>
+      <c r="Y55">
+        <v>-4.8447E-09</v>
+      </c>
+      <c r="Z55">
+        <v>-2.6671E-09</v>
+      </c>
+      <c r="AA55">
+        <v>-1.0725E-09</v>
+      </c>
+      <c r="AB55">
+        <v>-5.9628E-09</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56">
+        <v>-25</v>
+      </c>
+      <c r="B56">
+        <v>-5.6036E-10</v>
+      </c>
+      <c r="C56">
+        <v>-1.7915E-09</v>
+      </c>
+      <c r="D56">
+        <v>-1.5752E-09</v>
+      </c>
+      <c r="E56">
+        <v>-1.9962E-09</v>
+      </c>
+      <c r="F56">
+        <v>-2.0978E-09</v>
+      </c>
+      <c r="G56">
+        <v>-2.1784E-09</v>
+      </c>
+      <c r="H56">
+        <v>-6.6958E-10</v>
+      </c>
+      <c r="I56">
+        <v>-2.1564E-09</v>
+      </c>
+      <c r="J56">
+        <v>-1.6109E-09</v>
+      </c>
+      <c r="K56">
+        <v>-4.7104E-09</v>
+      </c>
+      <c r="L56">
+        <v>-6.9831E-09</v>
+      </c>
+      <c r="M56">
+        <v>-7.6765E-10</v>
+      </c>
+      <c r="N56">
+        <v>-2.1333E-09</v>
+      </c>
+      <c r="O56">
+        <v>-4.3959E-09</v>
+      </c>
+      <c r="P56">
+        <v>-2.8212E-09</v>
+      </c>
+      <c r="Q56">
+        <v>-1.0498E-09</v>
+      </c>
+      <c r="R56">
+        <v>-3.1053E-09</v>
+      </c>
+      <c r="S56">
+        <v>-8.846499999999999E-09</v>
+      </c>
+      <c r="T56">
+        <v>-5.6862E-09</v>
+      </c>
+      <c r="U56">
+        <v>-3.6396E-09</v>
+      </c>
+      <c r="V56">
+        <v>-4.4403E-10</v>
+      </c>
+      <c r="W56">
+        <v>-5.1501E-10</v>
+      </c>
+      <c r="X56">
+        <v>-5.1805E-10</v>
+      </c>
+      <c r="Y56">
+        <v>-4.4328E-09</v>
+      </c>
+      <c r="Z56">
+        <v>-2.4985E-09</v>
+      </c>
+      <c r="AA56">
+        <v>-8.5917E-10</v>
+      </c>
+      <c r="AB56">
+        <v>-4.8591E-09</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57">
+        <v>-20</v>
+      </c>
+      <c r="B57">
+        <v>-5.661E-10</v>
+      </c>
+      <c r="C57">
+        <v>-1.5573E-09</v>
+      </c>
+      <c r="D57">
+        <v>-1.4297E-09</v>
+      </c>
+      <c r="E57">
+        <v>-1.7014E-09</v>
+      </c>
+      <c r="F57">
+        <v>-1.8128E-09</v>
+      </c>
+      <c r="G57">
+        <v>-1.9386E-09</v>
+      </c>
+      <c r="H57">
+        <v>-5.7208E-10</v>
+      </c>
+      <c r="I57">
+        <v>-1.8974E-09</v>
+      </c>
+      <c r="J57">
+        <v>-1.433E-09</v>
+      </c>
+      <c r="K57">
+        <v>-4.12E-09</v>
+      </c>
+      <c r="L57">
+        <v>-6.1871E-09</v>
+      </c>
+      <c r="M57">
+        <v>-6.4342E-10</v>
+      </c>
+      <c r="N57">
+        <v>-1.6982E-09</v>
+      </c>
+      <c r="O57">
+        <v>-3.7632E-09</v>
+      </c>
+      <c r="P57">
+        <v>-2.4344E-09</v>
+      </c>
+      <c r="Q57">
+        <v>-8.0652E-10</v>
+      </c>
+      <c r="R57">
+        <v>-2.6053E-09</v>
+      </c>
+      <c r="S57">
+        <v>-7.2709E-09</v>
+      </c>
+      <c r="T57">
+        <v>-5.0613E-09</v>
+      </c>
+      <c r="U57">
+        <v>-2.7562E-09</v>
+      </c>
+      <c r="V57">
+        <v>-4.1179E-10</v>
+      </c>
+      <c r="W57">
+        <v>-4.522E-10</v>
+      </c>
+      <c r="X57">
+        <v>-4.2417E-10</v>
+      </c>
+      <c r="Y57">
+        <v>-4.0569E-09</v>
+      </c>
+      <c r="Z57">
+        <v>-2.2374E-09</v>
+      </c>
+      <c r="AA57">
+        <v>-7.0627E-10</v>
+      </c>
+      <c r="AB57">
+        <v>-3.9913E-09</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58">
+        <v>-15</v>
+      </c>
+      <c r="B58">
+        <v>-5.5186E-10</v>
+      </c>
+      <c r="C58">
+        <v>-1.4338E-09</v>
+      </c>
+      <c r="D58">
+        <v>-1.2778E-09</v>
+      </c>
+      <c r="E58">
+        <v>-1.4745E-09</v>
+      </c>
+      <c r="F58">
+        <v>-1.6451E-09</v>
+      </c>
+      <c r="G58">
+        <v>-1.6968E-09</v>
+      </c>
+      <c r="H58">
+        <v>-5.1853E-10</v>
+      </c>
+      <c r="I58">
+        <v>-1.7137E-09</v>
+      </c>
+      <c r="J58">
+        <v>-1.2915E-09</v>
+      </c>
+      <c r="K58">
+        <v>-3.5913E-09</v>
+      </c>
+      <c r="L58">
+        <v>-5.4263E-09</v>
+      </c>
+      <c r="M58">
+        <v>-5.7743E-10</v>
+      </c>
+      <c r="N58">
+        <v>-1.4716E-09</v>
+      </c>
+      <c r="O58">
+        <v>-3.3101E-09</v>
+      </c>
+      <c r="P58">
+        <v>-2.1223E-09</v>
+      </c>
+      <c r="Q58">
+        <v>-5.8344E-10</v>
+      </c>
+      <c r="R58">
+        <v>-2.1969E-09</v>
+      </c>
+      <c r="S58">
+        <v>-5.9961E-09</v>
+      </c>
+      <c r="T58">
+        <v>-4.3871E-09</v>
+      </c>
+      <c r="U58">
+        <v>-2.0636E-09</v>
+      </c>
+      <c r="V58">
+        <v>-3.0177E-10</v>
+      </c>
+      <c r="W58">
+        <v>-3.9371E-10</v>
+      </c>
+      <c r="X58">
+        <v>-3.8943E-10</v>
+      </c>
+      <c r="Y58">
+        <v>-3.4934E-09</v>
+      </c>
+      <c r="Z58">
+        <v>-1.9374E-09</v>
+      </c>
+      <c r="AA58">
+        <v>-5.6926E-10</v>
+      </c>
+      <c r="AB58">
+        <v>-3.2975E-09</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59">
+        <v>-10</v>
+      </c>
+      <c r="B59">
+        <v>-5.3881E-10</v>
+      </c>
+      <c r="C59">
+        <v>-1.2834E-09</v>
+      </c>
+      <c r="D59">
+        <v>-1.1456E-09</v>
+      </c>
+      <c r="E59">
+        <v>-1.3195E-09</v>
+      </c>
+      <c r="F59">
+        <v>-1.4714E-09</v>
+      </c>
+      <c r="G59">
+        <v>-1.597E-09</v>
+      </c>
+      <c r="H59">
+        <v>-4.5009E-10</v>
+      </c>
+      <c r="I59">
+        <v>-1.5444E-09</v>
+      </c>
+      <c r="J59">
+        <v>-1.1518E-09</v>
+      </c>
+      <c r="K59">
+        <v>-3.0724E-09</v>
+      </c>
+      <c r="L59">
+        <v>-4.7355E-09</v>
+      </c>
+      <c r="M59">
+        <v>-5.251E-10</v>
+      </c>
+      <c r="N59">
+        <v>-1.2347E-09</v>
+      </c>
+      <c r="O59">
+        <v>-2.9307E-09</v>
+      </c>
+      <c r="P59">
+        <v>-1.9007E-09</v>
+      </c>
+      <c r="Q59">
+        <v>-4.0703E-10</v>
+      </c>
+      <c r="R59">
+        <v>-1.8299E-09</v>
+      </c>
+      <c r="S59">
+        <v>-5.0065E-09</v>
+      </c>
+      <c r="T59">
+        <v>-3.9446E-09</v>
+      </c>
+      <c r="U59">
+        <v>-1.5881E-09</v>
+      </c>
+      <c r="V59">
+        <v>-3.0015E-10</v>
+      </c>
+      <c r="W59">
+        <v>-3.3672E-10</v>
+      </c>
+      <c r="X59">
+        <v>-3.1774E-10</v>
+      </c>
+      <c r="Y59">
+        <v>-2.9689E-09</v>
+      </c>
+      <c r="Z59">
+        <v>-1.7056E-09</v>
+      </c>
+      <c r="AA59">
+        <v>-5.5983E-10</v>
+      </c>
+      <c r="AB59">
+        <v>-2.7202E-09</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60">
+        <v>-5</v>
+      </c>
+      <c r="B60">
+        <v>-5.0464E-10</v>
+      </c>
+      <c r="C60">
+        <v>-1.1666E-09</v>
+      </c>
+      <c r="D60">
+        <v>-1.0091E-09</v>
+      </c>
+      <c r="E60">
+        <v>-1.1444E-09</v>
+      </c>
+      <c r="F60">
+        <v>-1.3106E-09</v>
+      </c>
+      <c r="G60">
+        <v>-1.4621E-09</v>
+      </c>
+      <c r="H60">
+        <v>-3.6622E-10</v>
+      </c>
+      <c r="I60">
+        <v>-1.3576E-09</v>
+      </c>
+      <c r="J60">
+        <v>-1.0832E-09</v>
+      </c>
+      <c r="K60">
+        <v>-2.6775E-09</v>
+      </c>
+      <c r="L60">
+        <v>-4.1629E-09</v>
+      </c>
+      <c r="M60">
+        <v>-4.601E-10</v>
+      </c>
+      <c r="N60">
+        <v>-9.930600000000001E-10</v>
+      </c>
+      <c r="O60">
+        <v>-2.5686E-09</v>
+      </c>
+      <c r="P60">
+        <v>-1.6743E-09</v>
+      </c>
+      <c r="Q60">
+        <v>-2.2366E-10</v>
+      </c>
+      <c r="R60">
+        <v>-1.4877E-09</v>
+      </c>
+      <c r="S60">
+        <v>-4.1498E-09</v>
+      </c>
+      <c r="T60">
+        <v>-3.4431E-09</v>
+      </c>
+      <c r="U60">
+        <v>-1.1184E-09</v>
+      </c>
+      <c r="V60">
+        <v>-2.3789E-10</v>
+      </c>
+      <c r="W60">
+        <v>-2.779E-10</v>
+      </c>
+      <c r="X60">
+        <v>-2.181E-10</v>
+      </c>
+      <c r="Y60">
+        <v>-2.4513E-09</v>
+      </c>
+      <c r="Z60">
+        <v>-1.4848E-09</v>
+      </c>
+      <c r="AA60">
+        <v>-4.0938E-10</v>
+      </c>
+      <c r="AB60">
+        <v>-2.2635E-09</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>-4.8218E-10</v>
+      </c>
+      <c r="C61">
+        <v>-1.0315E-09</v>
+      </c>
+      <c r="D61">
+        <v>-9.583200000000001E-10</v>
+      </c>
+      <c r="E61">
+        <v>-9.5455E-10</v>
+      </c>
+      <c r="F61">
+        <v>-1.1425E-09</v>
+      </c>
+      <c r="G61">
+        <v>-1.2916E-09</v>
+      </c>
+      <c r="H61">
+        <v>-3.2135E-10</v>
+      </c>
+      <c r="I61">
+        <v>-1.1954E-09</v>
+      </c>
+      <c r="J61">
+        <v>-9.904599999999999E-10</v>
+      </c>
+      <c r="K61">
+        <v>-2.3663E-09</v>
+      </c>
+      <c r="L61">
+        <v>-3.5794E-09</v>
+      </c>
+      <c r="M61">
+        <v>-3.7478E-10</v>
+      </c>
+      <c r="N61">
+        <v>-8.0361E-10</v>
+      </c>
+      <c r="O61">
+        <v>-2.2277E-09</v>
+      </c>
+      <c r="P61">
+        <v>-1.4418E-09</v>
+      </c>
+      <c r="Q61">
+        <v>-3.8771E-11</v>
+      </c>
+      <c r="R61">
+        <v>-1.2598E-09</v>
+      </c>
+      <c r="S61">
+        <v>-3.3672E-09</v>
+      </c>
+      <c r="T61">
+        <v>-2.9639E-09</v>
+      </c>
+      <c r="U61">
+        <v>-8.7517E-10</v>
+      </c>
+      <c r="V61">
+        <v>-1.8801E-10</v>
+      </c>
+      <c r="W61">
+        <v>-2.2753E-10</v>
+      </c>
+      <c r="X61">
+        <v>-1.6698E-10</v>
+      </c>
+      <c r="Y61">
+        <v>-1.9918E-09</v>
+      </c>
+      <c r="Z61">
+        <v>-1.3655E-09</v>
+      </c>
+      <c r="AA61">
+        <v>-3.5329E-10</v>
+      </c>
+      <c r="AB61">
+        <v>-1.8491E-09</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>-4.1708E-10</v>
+      </c>
+      <c r="C62">
+        <v>-9.1677E-10</v>
+      </c>
+      <c r="D62">
+        <v>-8.3992E-10</v>
+      </c>
+      <c r="E62">
+        <v>-8.3607E-10</v>
+      </c>
+      <c r="F62">
+        <v>-9.799700000000001E-10</v>
+      </c>
+      <c r="G62">
+        <v>-1.1545E-09</v>
+      </c>
+      <c r="H62">
+        <v>-2.8451E-10</v>
+      </c>
+      <c r="I62">
+        <v>-1.041E-09</v>
+      </c>
+      <c r="J62">
+        <v>-9.0462E-10</v>
+      </c>
+      <c r="K62">
+        <v>-2.0524E-09</v>
+      </c>
+      <c r="L62">
+        <v>-3.1427E-09</v>
+      </c>
+      <c r="M62">
+        <v>-2.9822E-10</v>
+      </c>
+      <c r="N62">
+        <v>-7.173E-10</v>
+      </c>
+      <c r="O62">
+        <v>-1.9729E-09</v>
+      </c>
+      <c r="P62">
+        <v>-1.301E-09</v>
+      </c>
+      <c r="Q62">
+        <v>-2.1698E-11</v>
+      </c>
+      <c r="R62">
+        <v>-1.0053E-09</v>
+      </c>
+      <c r="S62">
+        <v>-2.6636E-09</v>
+      </c>
+      <c r="T62">
+        <v>-2.6392E-09</v>
+      </c>
+      <c r="U62">
+        <v>-6.212199999999999E-10</v>
+      </c>
+      <c r="V62">
+        <v>-1.9437E-10</v>
+      </c>
+      <c r="W62">
+        <v>-1.9529E-10</v>
+      </c>
+      <c r="X62">
+        <v>-1.5253E-10</v>
+      </c>
+      <c r="Y62">
+        <v>-1.5502E-09</v>
+      </c>
+      <c r="Z62">
+        <v>-1.179E-09</v>
+      </c>
+      <c r="AA62">
+        <v>-3.1224E-10</v>
+      </c>
+      <c r="AB62">
+        <v>-1.5051E-09</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>-3.9297E-10</v>
+      </c>
+      <c r="C63">
+        <v>-8.3706E-10</v>
+      </c>
+      <c r="D63">
+        <v>-7.3926E-10</v>
+      </c>
+      <c r="E63">
+        <v>-6.9591E-10</v>
+      </c>
+      <c r="F63">
+        <v>-9.0233E-10</v>
+      </c>
+      <c r="G63">
+        <v>-1.0136E-09</v>
+      </c>
+      <c r="H63">
+        <v>-1.9243E-10</v>
+      </c>
+      <c r="I63">
+        <v>-9.3671E-10</v>
+      </c>
+      <c r="J63">
+        <v>-7.9049E-10</v>
+      </c>
+      <c r="K63">
+        <v>-1.779E-09</v>
+      </c>
+      <c r="L63">
+        <v>-2.6323E-09</v>
+      </c>
+      <c r="M63">
+        <v>-2.3469E-10</v>
+      </c>
+      <c r="N63">
+        <v>-5.3363E-10</v>
+      </c>
+      <c r="O63">
+        <v>-1.7582E-09</v>
+      </c>
+      <c r="P63">
+        <v>-1.1078E-09</v>
+      </c>
+      <c r="Q63">
+        <v>1.1455E-13</v>
+      </c>
+      <c r="R63">
+        <v>-8.5391E-10</v>
+      </c>
+      <c r="S63">
+        <v>-2.1245E-09</v>
+      </c>
+      <c r="T63">
+        <v>-2.2825E-09</v>
+      </c>
+      <c r="U63">
+        <v>-3.4964E-10</v>
+      </c>
+      <c r="V63">
+        <v>-1.4236E-10</v>
+      </c>
+      <c r="W63">
+        <v>-1.6615E-10</v>
+      </c>
+      <c r="X63">
+        <v>-1.1614E-10</v>
+      </c>
+      <c r="Y63">
+        <v>-1.1917E-09</v>
+      </c>
+      <c r="Z63">
+        <v>-1.0495E-09</v>
+      </c>
+      <c r="AA63">
+        <v>-2.884E-10</v>
+      </c>
+      <c r="AB63">
+        <v>-1.2215E-09</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="A64">
+        <v>15</v>
+      </c>
+      <c r="B64">
+        <v>-3.2501E-10</v>
+      </c>
+      <c r="C64">
+        <v>-7.1309E-10</v>
+      </c>
+      <c r="D64">
+        <v>-6.8028E-10</v>
+      </c>
+      <c r="E64">
+        <v>-5.7929E-10</v>
+      </c>
+      <c r="F64">
+        <v>-7.7876E-10</v>
+      </c>
+      <c r="G64">
+        <v>-8.7988E-10</v>
+      </c>
+      <c r="H64">
+        <v>-1.2983E-10</v>
+      </c>
+      <c r="I64">
+        <v>-7.7222E-10</v>
+      </c>
+      <c r="J64">
+        <v>-7.1874E-10</v>
+      </c>
+      <c r="K64">
+        <v>-1.5024E-09</v>
+      </c>
+      <c r="L64">
+        <v>-2.2051E-09</v>
+      </c>
+      <c r="M64">
+        <v>-1.8606E-10</v>
+      </c>
+      <c r="N64">
+        <v>-3.5353E-10</v>
+      </c>
+      <c r="O64">
+        <v>-1.5379E-09</v>
+      </c>
+      <c r="P64">
+        <v>-9.9278E-10</v>
+      </c>
+      <c r="Q64">
+        <v>-1.1292E-11</v>
+      </c>
+      <c r="R64">
+        <v>-6.4789E-10</v>
+      </c>
+      <c r="S64">
+        <v>-1.5657E-09</v>
+      </c>
+      <c r="T64">
+        <v>-1.9379E-09</v>
+      </c>
+      <c r="U64">
+        <v>-2.1123E-10</v>
+      </c>
+      <c r="V64">
+        <v>-1.3792E-10</v>
+      </c>
+      <c r="W64">
+        <v>-1.4279E-10</v>
+      </c>
+      <c r="X64">
+        <v>-6.030200000000001E-11</v>
+      </c>
+      <c r="Y64">
+        <v>-8.5205E-10</v>
+      </c>
+      <c r="Z64">
+        <v>-9.261E-10</v>
+      </c>
+      <c r="AA64">
+        <v>-2.9672E-10</v>
+      </c>
+      <c r="AB64">
+        <v>-9.324E-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65">
+        <v>20</v>
+      </c>
+      <c r="B65">
+        <v>-3.045E-10</v>
+      </c>
+      <c r="C65">
+        <v>-6.0798E-10</v>
+      </c>
+      <c r="D65">
+        <v>-5.3191E-10</v>
+      </c>
+      <c r="E65">
+        <v>-4.4256E-10</v>
+      </c>
+      <c r="F65">
+        <v>-6.6766E-10</v>
+      </c>
+      <c r="G65">
+        <v>-7.3548E-10</v>
+      </c>
+      <c r="H65">
+        <v>-1.2032E-10</v>
+      </c>
+      <c r="I65">
+        <v>-5.9385E-10</v>
+      </c>
+      <c r="J65">
+        <v>-6.4505E-10</v>
+      </c>
+      <c r="K65">
+        <v>-1.1969E-09</v>
+      </c>
+      <c r="L65">
+        <v>-1.8608E-09</v>
+      </c>
+      <c r="M65">
+        <v>-1.0442E-10</v>
+      </c>
+      <c r="N65">
+        <v>-2.4722E-10</v>
+      </c>
+      <c r="O65">
+        <v>-1.3166E-09</v>
+      </c>
+      <c r="P65">
+        <v>-8.6816E-10</v>
+      </c>
+      <c r="Q65">
+        <v>1.9479E-11</v>
+      </c>
+      <c r="R65">
+        <v>-4.0615E-10</v>
+      </c>
+      <c r="S65">
+        <v>-1.0638E-09</v>
+      </c>
+      <c r="T65">
+        <v>-1.6603E-09</v>
+      </c>
+      <c r="U65">
+        <v>-7.6041E-11</v>
+      </c>
+      <c r="V65">
+        <v>-1.501E-10</v>
+      </c>
+      <c r="W65">
+        <v>-1.0428E-10</v>
+      </c>
+      <c r="X65">
+        <v>-3.576E-11</v>
+      </c>
+      <c r="Y65">
+        <v>-5.1494E-10</v>
+      </c>
+      <c r="Z65">
+        <v>-8.2093E-10</v>
+      </c>
+      <c r="AA65">
+        <v>-2.1359E-10</v>
+      </c>
+      <c r="AB65">
+        <v>-7.0885E-10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66">
+        <v>25</v>
+      </c>
+      <c r="B66">
         <v>-2.7767E-10</v>
       </c>
-      <c r="C33">
+      <c r="C66">
         <v>-5.4557E-10</v>
       </c>
-      <c r="D33">
+      <c r="D66">
         <v>-5.3446E-10</v>
       </c>
-      <c r="E33">
+      <c r="E66">
         <v>-3.3466E-10</v>
       </c>
-      <c r="F33">
+      <c r="F66">
         <v>-5.611E-10</v>
       </c>
-      <c r="G33">
+      <c r="G66">
         <v>-6.3114E-10</v>
       </c>
-      <c r="H33">
+      <c r="H66">
         <v>-1.5715E-10</v>
       </c>
-      <c r="I33">
+      <c r="I66">
         <v>-4.1175E-10</v>
       </c>
-      <c r="J33">
+      <c r="J66">
         <v>-5.5621E-10</v>
       </c>
-      <c r="K33">
+      <c r="K66">
         <v>-9.7422E-10</v>
       </c>
-      <c r="L33">
+      <c r="L66">
         <v>-1.5188E-09</v>
       </c>
-      <c r="M33">
+      <c r="M66">
         <v>-2.7359E-11</v>
       </c>
-      <c r="N33">
+      <c r="N66">
         <v>-9.539600000000001E-11</v>
       </c>
-      <c r="O33">
+      <c r="O66">
         <v>-1.1535E-09</v>
       </c>
-      <c r="P33">
+      <c r="P66">
         <v>-6.8917E-10</v>
       </c>
-      <c r="Q33">
+      <c r="Q66">
         <v>7.2945E-14</v>
       </c>
-      <c r="R33">
+      <c r="R66">
         <v>-2.8624E-10</v>
       </c>
-      <c r="S33">
+      <c r="S66">
         <v>-5.5553E-10</v>
       </c>
-      <c r="T33">
+      <c r="T66">
         <v>-1.4216E-09</v>
       </c>
-      <c r="U33">
+      <c r="U66">
         <v>-3.4977E-11</v>
       </c>
-      <c r="V33">
+      <c r="V66">
         <v>-1.3788E-10</v>
       </c>
-      <c r="W33">
+      <c r="W66">
         <v>-9.262999999999999E-11</v>
       </c>
-      <c r="X33">
+      <c r="X66">
         <v>-1.3375E-11</v>
       </c>
-      <c r="Y33">
+      <c r="Y66">
         <v>-1.7574E-10</v>
       </c>
-      <c r="Z33">
+      <c r="Z66">
         <v>-7.173E-10</v>
       </c>
-      <c r="AA33">
+      <c r="AA66">
         <v>-1.9043E-10</v>
       </c>
-      <c r="AB33">
+      <c r="AB66">
         <v>-4.4123E-10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68" t="s">
+        <v>38</v>
+      </c>
+      <c r="J68" t="s">
+        <v>39</v>
+      </c>
+      <c r="K68" t="s">
+        <v>40</v>
+      </c>
+      <c r="L68" t="s">
+        <v>41</v>
+      </c>
+      <c r="M68" t="s">
+        <v>42</v>
+      </c>
+      <c r="N68" t="s">
+        <v>43</v>
+      </c>
+      <c r="O68" t="s">
+        <v>44</v>
+      </c>
+      <c r="P68" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>46</v>
+      </c>
+      <c r="R68" t="s">
+        <v>47</v>
+      </c>
+      <c r="S68" t="s">
+        <v>48</v>
+      </c>
+      <c r="T68" t="s">
+        <v>49</v>
+      </c>
+      <c r="U68" t="s">
+        <v>50</v>
+      </c>
+      <c r="V68" t="s">
+        <v>51</v>
+      </c>
+      <c r="W68" t="s">
+        <v>52</v>
+      </c>
+      <c r="X68" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69">
+        <v>-120</v>
+      </c>
+      <c r="B69">
+        <v>-3.3799E-10</v>
+      </c>
+      <c r="C69">
+        <v>-8.6194E-10</v>
+      </c>
+      <c r="D69">
+        <v>-8.434900000000001E-10</v>
+      </c>
+      <c r="E69">
+        <v>-1.0031E-09</v>
+      </c>
+      <c r="F69">
+        <v>-7.1513E-10</v>
+      </c>
+      <c r="G69">
+        <v>-1.5883E-09</v>
+      </c>
+      <c r="H69">
+        <v>-1.5822E-10</v>
+      </c>
+      <c r="I69">
+        <v>-1.7668E-09</v>
+      </c>
+      <c r="J69">
+        <v>-8.752E-10</v>
+      </c>
+      <c r="K69">
+        <v>-2.8161E-09</v>
+      </c>
+      <c r="L69">
+        <v>-4.4124E-09</v>
+      </c>
+      <c r="M69">
+        <v>-5.0563E-10</v>
+      </c>
+      <c r="N69">
+        <v>-1.6673E-09</v>
+      </c>
+      <c r="O69">
+        <v>-2.6733E-09</v>
+      </c>
+      <c r="P69">
+        <v>-1.3562E-09</v>
+      </c>
+      <c r="Q69">
+        <v>-8.2056E-10</v>
+      </c>
+      <c r="R69">
+        <v>-2.0449E-09</v>
+      </c>
+      <c r="S69">
+        <v>-9.383800000000001E-09</v>
+      </c>
+      <c r="T69">
+        <v>-3.3419E-09</v>
+      </c>
+      <c r="U69">
+        <v>-1.9809E-09</v>
+      </c>
+      <c r="V69">
+        <v>-2.128E-10</v>
+      </c>
+      <c r="W69">
+        <v>-3.3683E-10</v>
+      </c>
+      <c r="X69">
+        <v>-2.6049E-10</v>
+      </c>
+      <c r="Y69">
+        <v>-1.8137E-09</v>
+      </c>
+      <c r="Z69">
+        <v>-7.4309E-10</v>
+      </c>
+      <c r="AA69">
+        <v>-4.0025E-10</v>
+      </c>
+      <c r="AB69">
+        <v>-2.4126E-09</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70">
+        <v>-110</v>
+      </c>
+      <c r="B70">
+        <v>-3.8726E-10</v>
+      </c>
+      <c r="C70">
+        <v>-9.896899999999999E-10</v>
+      </c>
+      <c r="D70">
+        <v>-9.626400000000001E-10</v>
+      </c>
+      <c r="E70">
+        <v>-1.1387E-09</v>
+      </c>
+      <c r="F70">
+        <v>-7.7433E-10</v>
+      </c>
+      <c r="G70">
+        <v>-1.7133E-09</v>
+      </c>
+      <c r="H70">
+        <v>-1.8298E-10</v>
+      </c>
+      <c r="I70">
+        <v>-2.001E-09</v>
+      </c>
+      <c r="J70">
+        <v>-9.756E-10</v>
+      </c>
+      <c r="K70">
+        <v>-2.8112E-09</v>
+      </c>
+      <c r="L70">
+        <v>-4.7144E-09</v>
+      </c>
+      <c r="M70">
+        <v>-6.6252E-10</v>
+      </c>
+      <c r="N70">
+        <v>-1.6806E-09</v>
+      </c>
+      <c r="O70">
+        <v>-2.805E-09</v>
+      </c>
+      <c r="P70">
+        <v>-1.6436E-09</v>
+      </c>
+      <c r="Q70">
+        <v>-9.352799999999999E-10</v>
+      </c>
+      <c r="R70">
+        <v>-2.3607E-09</v>
+      </c>
+      <c r="S70">
+        <v>-1.0454E-08</v>
+      </c>
+      <c r="T70">
+        <v>-3.5718E-09</v>
+      </c>
+      <c r="U70">
+        <v>-2.2672E-09</v>
+      </c>
+      <c r="V70">
+        <v>-2.6915E-10</v>
+      </c>
+      <c r="W70">
+        <v>-3.8449E-10</v>
+      </c>
+      <c r="X70">
+        <v>-2.8485E-10</v>
+      </c>
+      <c r="Y70">
+        <v>-1.8873E-09</v>
+      </c>
+      <c r="Z70">
+        <v>-8.2497E-10</v>
+      </c>
+      <c r="AA70">
+        <v>-5.0888E-10</v>
+      </c>
+      <c r="AB70">
+        <v>-2.65E-09</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71">
+        <v>-100</v>
+      </c>
+      <c r="B71">
+        <v>-3.7373E-10</v>
+      </c>
+      <c r="C71">
+        <v>-1.0498E-09</v>
+      </c>
+      <c r="D71">
+        <v>-9.5945E-10</v>
+      </c>
+      <c r="E71">
+        <v>-1.1682E-09</v>
+      </c>
+      <c r="F71">
+        <v>-8.7379E-10</v>
+      </c>
+      <c r="G71">
+        <v>-1.77E-09</v>
+      </c>
+      <c r="H71">
+        <v>-1.6967E-10</v>
+      </c>
+      <c r="I71">
+        <v>-2.0386E-09</v>
+      </c>
+      <c r="J71">
+        <v>-1.065E-09</v>
+      </c>
+      <c r="K71">
+        <v>-2.9521E-09</v>
+      </c>
+      <c r="L71">
+        <v>-4.8359E-09</v>
+      </c>
+      <c r="M71">
+        <v>-6.9823E-10</v>
+      </c>
+      <c r="N71">
+        <v>-1.8191E-09</v>
+      </c>
+      <c r="O71">
+        <v>-2.9978E-09</v>
+      </c>
+      <c r="P71">
+        <v>-1.627E-09</v>
+      </c>
+      <c r="Q71">
+        <v>-1.0496E-09</v>
+      </c>
+      <c r="R71">
+        <v>-2.4811E-09</v>
+      </c>
+      <c r="S71">
+        <v>-1.1122E-08</v>
+      </c>
+      <c r="T71">
+        <v>-3.9128E-09</v>
+      </c>
+      <c r="U71">
+        <v>-2.5124E-09</v>
+      </c>
+      <c r="V71">
+        <v>-3.0978E-10</v>
+      </c>
+      <c r="W71">
+        <v>-3.9407E-10</v>
+      </c>
+      <c r="X71">
+        <v>-3.6158E-10</v>
+      </c>
+      <c r="Y71">
+        <v>-2.0702E-09</v>
+      </c>
+      <c r="Z71">
+        <v>-8.1961E-10</v>
+      </c>
+      <c r="AA71">
+        <v>-5.0632E-10</v>
+      </c>
+      <c r="AB71">
+        <v>-2.8747E-09</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72">
+        <v>-90</v>
+      </c>
+      <c r="B72">
+        <v>-4.0086E-10</v>
+      </c>
+      <c r="C72">
+        <v>-1.1877E-09</v>
+      </c>
+      <c r="D72">
+        <v>-1.0752E-09</v>
+      </c>
+      <c r="E72">
+        <v>-1.2734E-09</v>
+      </c>
+      <c r="F72">
+        <v>-9.6962E-10</v>
+      </c>
+      <c r="G72">
+        <v>-1.7726E-09</v>
+      </c>
+      <c r="H72">
+        <v>-1.5961E-10</v>
+      </c>
+      <c r="I72">
+        <v>-2.1503E-09</v>
+      </c>
+      <c r="J72">
+        <v>-1.1507E-09</v>
+      </c>
+      <c r="K72">
+        <v>-3.2186E-09</v>
+      </c>
+      <c r="L72">
+        <v>-5.1283E-09</v>
+      </c>
+      <c r="M72">
+        <v>-7.3656E-10</v>
+      </c>
+      <c r="N72">
+        <v>-1.9128E-09</v>
+      </c>
+      <c r="O72">
+        <v>-3.2027E-09</v>
+      </c>
+      <c r="P72">
+        <v>-1.7067E-09</v>
+      </c>
+      <c r="Q72">
+        <v>-1.1176E-09</v>
+      </c>
+      <c r="R72">
+        <v>-2.706E-09</v>
+      </c>
+      <c r="S72">
+        <v>-1.1701E-08</v>
+      </c>
+      <c r="T72">
+        <v>-4.2369E-09</v>
+      </c>
+      <c r="U72">
+        <v>-2.831E-09</v>
+      </c>
+      <c r="V72">
+        <v>-3.1226E-10</v>
+      </c>
+      <c r="W72">
+        <v>-3.6013E-10</v>
+      </c>
+      <c r="X72">
+        <v>-3.7604E-10</v>
+      </c>
+      <c r="Y72">
+        <v>-2.1587E-09</v>
+      </c>
+      <c r="Z72">
+        <v>-9.818500000000001E-10</v>
+      </c>
+      <c r="AA72">
+        <v>-5.057999999999999E-10</v>
+      </c>
+      <c r="AB72">
+        <v>-3.1587E-09</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73">
+        <v>-80</v>
+      </c>
+      <c r="B73">
+        <v>-3.7877E-10</v>
+      </c>
+      <c r="C73">
+        <v>-1.2536E-09</v>
+      </c>
+      <c r="D73">
+        <v>-1.1185E-09</v>
+      </c>
+      <c r="E73">
+        <v>-1.4021E-09</v>
+      </c>
+      <c r="F73">
+        <v>-1.0852E-09</v>
+      </c>
+      <c r="G73">
+        <v>-1.7718E-09</v>
+      </c>
+      <c r="H73">
+        <v>-1.8168E-10</v>
+      </c>
+      <c r="I73">
+        <v>-2.1116E-09</v>
+      </c>
+      <c r="J73">
+        <v>-1.2292E-09</v>
+      </c>
+      <c r="K73">
+        <v>-3.4787E-09</v>
+      </c>
+      <c r="L73">
+        <v>-5.3241E-09</v>
+      </c>
+      <c r="M73">
+        <v>-6.2814E-10</v>
+      </c>
+      <c r="N73">
+        <v>-1.8686E-09</v>
+      </c>
+      <c r="O73">
+        <v>-3.4994E-09</v>
+      </c>
+      <c r="P73">
+        <v>-1.8606E-09</v>
+      </c>
+      <c r="Q73">
+        <v>-1.1131E-09</v>
+      </c>
+      <c r="R73">
+        <v>-2.6983E-09</v>
+      </c>
+      <c r="S73">
+        <v>-1.094E-08</v>
+      </c>
+      <c r="T73">
+        <v>-4.5625E-09</v>
+      </c>
+      <c r="U73">
+        <v>-3.1599E-09</v>
+      </c>
+      <c r="V73">
+        <v>-2.8421E-10</v>
+      </c>
+      <c r="W73">
+        <v>-2.8493E-10</v>
+      </c>
+      <c r="X73">
+        <v>-3.6279E-10</v>
+      </c>
+      <c r="Y73">
+        <v>-2.1567E-09</v>
+      </c>
+      <c r="Z73">
+        <v>-1.0784E-09</v>
+      </c>
+      <c r="AA73">
+        <v>-5.7714E-10</v>
+      </c>
+      <c r="AB73">
+        <v>-3.4407E-09</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
+      <c r="A74">
+        <v>-70</v>
+      </c>
+      <c r="B74">
+        <v>-3.0825E-10</v>
+      </c>
+      <c r="C74">
+        <v>-1.3546E-09</v>
+      </c>
+      <c r="D74">
+        <v>-1.1309E-09</v>
+      </c>
+      <c r="E74">
+        <v>-1.4849E-09</v>
+      </c>
+      <c r="F74">
+        <v>-1.2134E-09</v>
+      </c>
+      <c r="G74">
+        <v>-1.5937E-09</v>
+      </c>
+      <c r="H74">
+        <v>-1.5224E-10</v>
+      </c>
+      <c r="I74">
+        <v>-1.7974E-09</v>
+      </c>
+      <c r="J74">
+        <v>-1.2006E-09</v>
+      </c>
+      <c r="K74">
+        <v>-3.8594E-09</v>
+      </c>
+      <c r="L74">
+        <v>-5.4093E-09</v>
+      </c>
+      <c r="M74">
+        <v>-5.058600000000001E-10</v>
+      </c>
+      <c r="N74">
+        <v>-1.7006E-09</v>
+      </c>
+      <c r="O74">
+        <v>-3.6422E-09</v>
+      </c>
+      <c r="P74">
+        <v>-1.8362E-09</v>
+      </c>
+      <c r="Q74">
+        <v>-9.963E-10</v>
+      </c>
+      <c r="R74">
+        <v>-2.3954E-09</v>
+      </c>
+      <c r="S74">
+        <v>-1.1054E-08</v>
+      </c>
+      <c r="T74">
+        <v>-4.5905E-09</v>
+      </c>
+      <c r="U74">
+        <v>-3.248E-09</v>
+      </c>
+      <c r="V74">
+        <v>-2.2935E-10</v>
+      </c>
+      <c r="W74">
+        <v>-2.2347E-10</v>
+      </c>
+      <c r="X74">
+        <v>-3.5903E-10</v>
+      </c>
+      <c r="Y74">
+        <v>-2.2967E-09</v>
+      </c>
+      <c r="Z74">
+        <v>-1.3666E-09</v>
+      </c>
+      <c r="AA74">
+        <v>-5.3331E-10</v>
+      </c>
+      <c r="AB74">
+        <v>-3.5738E-09</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
+      <c r="A75">
+        <v>-60</v>
+      </c>
+      <c r="B75">
+        <v>-2.4787E-10</v>
+      </c>
+      <c r="C75">
+        <v>-1.2926E-09</v>
+      </c>
+      <c r="D75">
+        <v>-1.1865E-09</v>
+      </c>
+      <c r="E75">
+        <v>-1.454E-09</v>
+      </c>
+      <c r="F75">
+        <v>-1.3001E-09</v>
+      </c>
+      <c r="G75">
+        <v>-1.0303E-09</v>
+      </c>
+      <c r="H75">
+        <v>-2.3124E-10</v>
+      </c>
+      <c r="I75">
+        <v>-1.0545E-09</v>
+      </c>
+      <c r="J75">
+        <v>-1.1792E-09</v>
+      </c>
+      <c r="K75">
+        <v>-3.8166E-09</v>
+      </c>
+      <c r="L75">
+        <v>-4.5986E-09</v>
+      </c>
+      <c r="M75">
+        <v>-2.4825E-10</v>
+      </c>
+      <c r="N75">
+        <v>-9.0691E-10</v>
+      </c>
+      <c r="O75">
+        <v>-3.281E-09</v>
+      </c>
+      <c r="P75">
+        <v>-1.9271E-09</v>
+      </c>
+      <c r="Q75">
+        <v>-3.7675E-10</v>
+      </c>
+      <c r="R75">
+        <v>-1.9289E-09</v>
+      </c>
+      <c r="S75">
+        <v>-6.1644E-09</v>
+      </c>
+      <c r="T75">
+        <v>-3.7309E-09</v>
+      </c>
+      <c r="U75">
+        <v>-2.647E-09</v>
+      </c>
+      <c r="V75">
+        <v>-8.1512E-11</v>
+      </c>
+      <c r="W75">
+        <v>-8.2956E-11</v>
+      </c>
+      <c r="X75">
+        <v>-2.5438E-10</v>
+      </c>
+      <c r="Y75">
+        <v>-2.262E-09</v>
+      </c>
+      <c r="Z75">
+        <v>-1.5522E-09</v>
+      </c>
+      <c r="AA75">
+        <v>-3.0969E-10</v>
+      </c>
+      <c r="AB75">
+        <v>-2.7906E-09</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
+      <c r="A76">
+        <v>-50</v>
+      </c>
+      <c r="B76">
+        <v>-1.0808E-10</v>
+      </c>
+      <c r="C76">
+        <v>-8.9266E-10</v>
+      </c>
+      <c r="D76">
+        <v>-8.775399999999999E-10</v>
+      </c>
+      <c r="E76">
+        <v>-9.1801E-10</v>
+      </c>
+      <c r="F76">
+        <v>-1.0697E-09</v>
+      </c>
+      <c r="G76">
+        <v>-2.9651E-10</v>
+      </c>
+      <c r="H76">
+        <v>-2.2349E-10</v>
+      </c>
+      <c r="I76">
+        <v>-3.0319E-10</v>
+      </c>
+      <c r="J76">
+        <v>-7.1076E-10</v>
+      </c>
+      <c r="K76">
+        <v>-2.2234E-09</v>
+      </c>
+      <c r="L76">
+        <v>-2.2559E-09</v>
+      </c>
+      <c r="M76">
+        <v>-5.105E-11</v>
+      </c>
+      <c r="N76">
+        <v>-4.7887E-11</v>
+      </c>
+      <c r="O76">
+        <v>-2.4323E-09</v>
+      </c>
+      <c r="P76">
+        <v>-1.0803E-09</v>
+      </c>
+      <c r="Q76">
+        <v>1.4534E-10</v>
+      </c>
+      <c r="R76">
+        <v>-7.1364E-10</v>
+      </c>
+      <c r="S76">
+        <v>-1.4399E-09</v>
+      </c>
+      <c r="T76">
+        <v>-2.1847E-09</v>
+      </c>
+      <c r="U76">
+        <v>-5.3579E-10</v>
+      </c>
+      <c r="V76">
+        <v>8.63E-11</v>
+      </c>
+      <c r="W76">
+        <v>-2.2031E-11</v>
+      </c>
+      <c r="X76">
+        <v>-2.6863E-11</v>
+      </c>
+      <c r="Y76">
+        <v>-1.3868E-09</v>
+      </c>
+      <c r="Z76">
+        <v>-1.5326E-09</v>
+      </c>
+      <c r="AA76">
+        <v>1.5238E-11</v>
+      </c>
+      <c r="AB76">
+        <v>-1.0058E-09</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
+      <c r="A77">
+        <v>-40</v>
+      </c>
+      <c r="B77">
+        <v>-4.1225E-11</v>
+      </c>
+      <c r="C77">
+        <v>-1.2551E-10</v>
+      </c>
+      <c r="D77">
+        <v>-4.3837E-10</v>
+      </c>
+      <c r="E77">
+        <v>-6.2575E-11</v>
+      </c>
+      <c r="F77">
+        <v>-3.0301E-10</v>
+      </c>
+      <c r="G77">
+        <v>-6.325E-11</v>
+      </c>
+      <c r="H77">
+        <v>-5.9406E-11</v>
+      </c>
+      <c r="I77">
+        <v>3.0812E-11</v>
+      </c>
+      <c r="J77">
+        <v>-1.1945E-10</v>
+      </c>
+      <c r="K77">
+        <v>-5.002E-10</v>
+      </c>
+      <c r="L77">
+        <v>-4.2419E-10</v>
+      </c>
+      <c r="M77">
+        <v>-1.2575E-11</v>
+      </c>
+      <c r="N77">
+        <v>6.402500000000001E-11</v>
+      </c>
+      <c r="O77">
+        <v>-7.1052E-10</v>
+      </c>
+      <c r="P77">
+        <v>-1.2634E-10</v>
+      </c>
+      <c r="Q77">
+        <v>4.0863E-10</v>
+      </c>
+      <c r="R77">
+        <v>-6.89E-11</v>
+      </c>
+      <c r="S77">
+        <v>-5.262E-11</v>
+      </c>
+      <c r="T77">
+        <v>-8.765E-10</v>
+      </c>
+      <c r="U77">
+        <v>1.0385E-10</v>
+      </c>
+      <c r="V77">
+        <v>1.0183E-10</v>
+      </c>
+      <c r="W77">
+        <v>1.3438E-11</v>
+      </c>
+      <c r="X77">
+        <v>1.9884E-10</v>
+      </c>
+      <c r="Y77">
+        <v>-3.3077E-10</v>
+      </c>
+      <c r="Z77">
+        <v>-1.0164E-09</v>
+      </c>
+      <c r="AA77">
+        <v>7.287499999999999E-11</v>
+      </c>
+      <c r="AB77">
+        <v>-4.2529E-11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="A78">
+        <v>-30</v>
+      </c>
+      <c r="B78">
+        <v>-6.9188E-12</v>
+      </c>
+      <c r="C78">
+        <v>-2.1444E-11</v>
+      </c>
+      <c r="D78">
+        <v>-7.9981E-11</v>
+      </c>
+      <c r="E78">
+        <v>1.2964E-10</v>
+      </c>
+      <c r="F78">
+        <v>-4.9681E-11</v>
+      </c>
+      <c r="G78">
+        <v>-9.3306E-11</v>
+      </c>
+      <c r="H78">
+        <v>3.71E-11</v>
+      </c>
+      <c r="I78">
+        <v>2.8237E-11</v>
+      </c>
+      <c r="J78">
+        <v>6.625E-12</v>
+      </c>
+      <c r="K78">
+        <v>-1.4371E-10</v>
+      </c>
+      <c r="L78">
+        <v>1.905E-11</v>
+      </c>
+      <c r="M78">
+        <v>7.1381E-11</v>
+      </c>
+      <c r="N78">
+        <v>1.7053E-10</v>
+      </c>
+      <c r="O78">
+        <v>-1.674E-10</v>
+      </c>
+      <c r="P78">
+        <v>1.7816E-10</v>
+      </c>
+      <c r="Q78">
+        <v>6.0175E-10</v>
+      </c>
+      <c r="R78">
+        <v>1.4635E-10</v>
+      </c>
+      <c r="S78">
+        <v>1.456E-10</v>
+      </c>
+      <c r="T78">
+        <v>-3.7391E-10</v>
+      </c>
+      <c r="U78">
+        <v>1.0902E-10</v>
+      </c>
+      <c r="V78">
+        <v>1.8706E-10</v>
+      </c>
+      <c r="W78">
+        <v>2.0225E-11</v>
+      </c>
+      <c r="X78">
+        <v>1.6206E-10</v>
+      </c>
+      <c r="Y78">
+        <v>1.5812E-10</v>
+      </c>
+      <c r="Z78">
+        <v>-3.2589E-10</v>
+      </c>
+      <c r="AA78">
+        <v>1.0789E-10</v>
+      </c>
+      <c r="AB78">
+        <v>1.1917E-11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79">
+        <v>-20</v>
+      </c>
+      <c r="B79">
+        <v>-2.8962E-11</v>
+      </c>
+      <c r="C79">
+        <v>-1.0994E-11</v>
+      </c>
+      <c r="D79">
+        <v>-1.0304E-10</v>
+      </c>
+      <c r="E79">
+        <v>1.6013E-10</v>
+      </c>
+      <c r="F79">
+        <v>-1.2075E-11</v>
+      </c>
+      <c r="G79">
+        <v>-5.4769E-11</v>
+      </c>
+      <c r="H79">
+        <v>2.539E-10</v>
+      </c>
+      <c r="I79">
+        <v>7.1887E-11</v>
+      </c>
+      <c r="J79">
+        <v>7.7487E-11</v>
+      </c>
+      <c r="K79">
+        <v>-3.4687E-11</v>
+      </c>
+      <c r="L79">
+        <v>-8.1313E-11</v>
+      </c>
+      <c r="M79">
+        <v>8.719999999999999E-11</v>
+      </c>
+      <c r="N79">
+        <v>1.708E-10</v>
+      </c>
+      <c r="O79">
+        <v>-1.0378E-10</v>
+      </c>
+      <c r="P79">
+        <v>1.5781E-10</v>
+      </c>
+      <c r="Q79">
+        <v>4.8515E-10</v>
+      </c>
+      <c r="R79">
+        <v>1.3839E-10</v>
+      </c>
+      <c r="S79">
+        <v>1.8352E-10</v>
+      </c>
+      <c r="T79">
+        <v>-2.3357E-10</v>
+      </c>
+      <c r="U79">
+        <v>2.1224E-10</v>
+      </c>
+      <c r="V79">
+        <v>1.5074E-10</v>
+      </c>
+      <c r="W79">
+        <v>3.9513E-11</v>
+      </c>
+      <c r="X79">
+        <v>1.089E-10</v>
+      </c>
+      <c r="Y79">
+        <v>3.1224E-10</v>
+      </c>
+      <c r="Z79">
+        <v>-1.4282E-10</v>
+      </c>
+      <c r="AA79">
+        <v>1.461E-10</v>
+      </c>
+      <c r="AB79">
+        <v>4.9153E-11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80">
+        <v>-10</v>
+      </c>
+      <c r="B80">
+        <v>-2.8419E-11</v>
+      </c>
+      <c r="C80">
+        <v>-4.5188E-11</v>
+      </c>
+      <c r="D80">
+        <v>4.1369E-11</v>
+      </c>
+      <c r="E80">
+        <v>1.2802E-10</v>
+      </c>
+      <c r="F80">
+        <v>-2.4706E-11</v>
+      </c>
+      <c r="G80">
+        <v>-1.7301E-10</v>
+      </c>
+      <c r="H80">
+        <v>2.0529E-10</v>
+      </c>
+      <c r="I80">
+        <v>7.1437E-11</v>
+      </c>
+      <c r="J80">
+        <v>1.5237E-11</v>
+      </c>
+      <c r="K80">
+        <v>-5.4437E-11</v>
+      </c>
+      <c r="L80">
+        <v>9.8225E-11</v>
+      </c>
+      <c r="M80">
+        <v>8.2562E-11</v>
+      </c>
+      <c r="N80">
+        <v>2.5416E-10</v>
+      </c>
+      <c r="O80">
+        <v>-1.86E-11</v>
+      </c>
+      <c r="P80">
+        <v>2.3621E-10</v>
+      </c>
+      <c r="Q80">
+        <v>4.7757E-10</v>
+      </c>
+      <c r="R80">
+        <v>1.8947E-10</v>
+      </c>
+      <c r="S80">
+        <v>2.3249E-10</v>
+      </c>
+      <c r="T80">
+        <v>-2.1316E-10</v>
+      </c>
+      <c r="U80">
+        <v>2.0624E-10</v>
+      </c>
+      <c r="V80">
+        <v>2.358E-10</v>
+      </c>
+      <c r="W80">
+        <v>6.550600000000001E-11</v>
+      </c>
+      <c r="X80">
+        <v>2.1561E-10</v>
+      </c>
+      <c r="Y80">
+        <v>3.107E-10</v>
+      </c>
+      <c r="Z80">
+        <v>-1.146E-10</v>
+      </c>
+      <c r="AA80">
+        <v>1.1796E-10</v>
+      </c>
+      <c r="AB80">
+        <v>8.9516E-11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>-4.2031E-11</v>
+      </c>
+      <c r="C81">
+        <v>-8.85E-12</v>
+      </c>
+      <c r="D81">
+        <v>1.575E-11</v>
+      </c>
+      <c r="E81">
+        <v>1.0077E-10</v>
+      </c>
+      <c r="F81">
+        <v>1.3619E-11</v>
+      </c>
+      <c r="G81">
+        <v>-1.5638E-10</v>
+      </c>
+      <c r="H81">
+        <v>1.8917E-10</v>
+      </c>
+      <c r="I81">
+        <v>2.0225E-11</v>
+      </c>
+      <c r="J81">
+        <v>1.55E-12</v>
+      </c>
+      <c r="K81">
+        <v>-3.5587E-11</v>
+      </c>
+      <c r="L81">
+        <v>7.3E-12</v>
+      </c>
+      <c r="M81">
+        <v>7.7331E-11</v>
+      </c>
+      <c r="N81">
+        <v>2.0521E-10</v>
+      </c>
+      <c r="O81">
+        <v>-6.35E-12</v>
+      </c>
+      <c r="P81">
+        <v>2.0765E-10</v>
+      </c>
+      <c r="Q81">
+        <v>6.4736E-10</v>
+      </c>
+      <c r="R81">
+        <v>2.3089E-10</v>
+      </c>
+      <c r="S81">
+        <v>3.0312E-10</v>
+      </c>
+      <c r="T81">
+        <v>-1.3721E-10</v>
+      </c>
+      <c r="U81">
+        <v>3.0018E-10</v>
+      </c>
+      <c r="V81">
+        <v>1.8332E-10</v>
+      </c>
+      <c r="W81">
+        <v>4.8906E-11</v>
+      </c>
+      <c r="X81">
+        <v>2.0356E-10</v>
+      </c>
+      <c r="Y81">
+        <v>3.7088E-10</v>
+      </c>
+      <c r="Z81">
+        <v>-1.2099E-10</v>
+      </c>
+      <c r="AA81">
+        <v>1.0825E-10</v>
+      </c>
+      <c r="AB81">
+        <v>6.9551E-11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
+      <c r="A82">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <v>-2.3225E-11</v>
+      </c>
+      <c r="C82">
+        <v>8.3375E-12</v>
+      </c>
+      <c r="D82">
+        <v>-5.125E-11</v>
+      </c>
+      <c r="E82">
+        <v>2.0949E-10</v>
+      </c>
+      <c r="F82">
+        <v>-1.9956E-11</v>
+      </c>
+      <c r="G82">
+        <v>-1.7964E-10</v>
+      </c>
+      <c r="H82">
+        <v>1.7681E-10</v>
+      </c>
+      <c r="I82">
+        <v>1.0275E-11</v>
+      </c>
+      <c r="J82">
+        <v>5.415E-11</v>
+      </c>
+      <c r="K82">
+        <v>-6.8925E-11</v>
+      </c>
+      <c r="L82">
+        <v>-5.9013E-11</v>
+      </c>
+      <c r="M82">
+        <v>1.1872E-10</v>
+      </c>
+      <c r="N82">
+        <v>2.4008E-10</v>
+      </c>
+      <c r="O82">
+        <v>-1.2436E-10</v>
+      </c>
+      <c r="P82">
+        <v>2.2824E-10</v>
+      </c>
+      <c r="Q82">
+        <v>8.0578E-10</v>
+      </c>
+      <c r="R82">
+        <v>2.1169E-10</v>
+      </c>
+      <c r="S82">
+        <v>2.6691E-10</v>
+      </c>
+      <c r="T82">
+        <v>-1.108E-10</v>
+      </c>
+      <c r="U82">
+        <v>2.7341E-10</v>
+      </c>
+      <c r="V82">
+        <v>1.6768E-10</v>
+      </c>
+      <c r="W82">
+        <v>7.121900000000001E-11</v>
+      </c>
+      <c r="X82">
+        <v>2.4891E-10</v>
+      </c>
+      <c r="Y82">
+        <v>3.6975E-10</v>
+      </c>
+      <c r="Z82">
+        <v>-1.481E-10</v>
+      </c>
+      <c r="AA82">
+        <v>3.8437E-11</v>
+      </c>
+      <c r="AB82">
+        <v>1.2233E-10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
+      <c r="A83">
+        <v>20</v>
+      </c>
+      <c r="B83">
+        <v>-4.4438E-12</v>
+      </c>
+      <c r="C83">
+        <v>2.7369E-11</v>
+      </c>
+      <c r="D83">
+        <v>-2.3763E-11</v>
+      </c>
+      <c r="E83">
+        <v>2.0013E-10</v>
+      </c>
+      <c r="F83">
+        <v>2.5706E-11</v>
+      </c>
+      <c r="G83">
+        <v>-3.4674E-10</v>
+      </c>
+      <c r="H83">
+        <v>1.6282E-10</v>
+      </c>
+      <c r="I83">
+        <v>3.2537E-11</v>
+      </c>
+      <c r="J83">
+        <v>-6.9E-12</v>
+      </c>
+      <c r="K83">
+        <v>-7.4662E-11</v>
+      </c>
+      <c r="L83">
+        <v>-7.836200000000001E-11</v>
+      </c>
+      <c r="M83">
+        <v>1.8139E-10</v>
+      </c>
+      <c r="N83">
+        <v>3.0019E-10</v>
+      </c>
+      <c r="O83">
+        <v>1.0175E-11</v>
+      </c>
+      <c r="P83">
+        <v>3.4331E-10</v>
+      </c>
+      <c r="Q83">
+        <v>7.4311E-10</v>
+      </c>
+      <c r="R83">
+        <v>2.1014E-10</v>
+      </c>
+      <c r="S83">
+        <v>3.5057E-10</v>
+      </c>
+      <c r="T83">
+        <v>-2.0179E-10</v>
+      </c>
+      <c r="U83">
+        <v>3.6772E-10</v>
+      </c>
+      <c r="V83">
+        <v>2.462E-10</v>
+      </c>
+      <c r="W83">
+        <v>7.183699999999999E-11</v>
+      </c>
+      <c r="X83">
+        <v>2.4351E-10</v>
+      </c>
+      <c r="Y83">
+        <v>4.2272E-10</v>
+      </c>
+      <c r="Z83">
+        <v>-1.3816E-10</v>
+      </c>
+      <c r="AA83">
+        <v>1.1892E-10</v>
+      </c>
+      <c r="AB83">
+        <v>1.0335E-10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
+      <c r="A84">
+        <v>30</v>
+      </c>
+      <c r="B84">
+        <v>3.7E-12</v>
+      </c>
+      <c r="C84">
+        <v>-1.97E-11</v>
+      </c>
+      <c r="D84">
+        <v>-2.5644E-11</v>
+      </c>
+      <c r="E84">
+        <v>2.2462E-10</v>
+      </c>
+      <c r="F84">
+        <v>-2.4281E-11</v>
+      </c>
+      <c r="G84">
+        <v>-3.4052E-10</v>
+      </c>
+      <c r="H84">
+        <v>9.4513E-11</v>
+      </c>
+      <c r="I84">
+        <v>-7.3863E-11</v>
+      </c>
+      <c r="J84">
+        <v>-3.7212E-11</v>
+      </c>
+      <c r="K84">
+        <v>-3.47E-11</v>
+      </c>
+      <c r="L84">
+        <v>-1.0056E-10</v>
+      </c>
+      <c r="M84">
+        <v>1.3657E-10</v>
+      </c>
+      <c r="N84">
+        <v>2.2258E-10</v>
+      </c>
+      <c r="O84">
+        <v>-2.571E-10</v>
+      </c>
+      <c r="P84">
+        <v>1.8712E-10</v>
+      </c>
+      <c r="Q84">
+        <v>9.696E-10</v>
+      </c>
+      <c r="R84">
+        <v>2.117E-10</v>
+      </c>
+      <c r="S84">
+        <v>2.5576E-10</v>
+      </c>
+      <c r="T84">
+        <v>-2.7156E-10</v>
+      </c>
+      <c r="U84">
+        <v>3.1974E-10</v>
+      </c>
+      <c r="V84">
+        <v>2.7551E-10</v>
+      </c>
+      <c r="W84">
+        <v>1.0878E-10</v>
+      </c>
+      <c r="X84">
+        <v>3.1529E-10</v>
+      </c>
+      <c r="Y84">
+        <v>4.5087E-10</v>
+      </c>
+      <c r="Z84">
+        <v>-1.1314E-10</v>
+      </c>
+      <c r="AA84">
+        <v>3.7363E-11</v>
+      </c>
+      <c r="AB84">
+        <v>9.3849E-11</v>
       </c>
     </row>
   </sheetData>
